--- a/backend/db/data/instancia.xlsx
+++ b/backend/db/data/instancia.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
-  <si>
-    <t>id_instancia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>sence</t>
   </si>
@@ -200,10 +197,10 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -440,4811 +437,4632 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <f t="shared" ref="A2:A45" si="1">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="str">
+        <f t="shared" ref="C2:C45" si="1">CHOOSE(RANDBETWEEN(1,2),"true","false")</f>
+        <v>false</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44520.0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>44488.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="str">
-        <f t="shared" ref="D2:D45" si="2">CHOOSE(RANDBETWEEN(1,2),"true","false")</f>
-        <v>true</v>
-      </c>
-      <c r="E2" s="6">
-        <v>44520.0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>44488.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
+        <v>false</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44515.0</v>
       </c>
       <c r="E3" s="6">
-        <v>44515.0</v>
-      </c>
-      <c r="F3" s="6">
         <v>44482.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4">
+        <v>1.238020145E9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.238020145E9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f t="shared" si="2"/>
+        <v>false</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44508.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>44482.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44550.0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44482.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44520.0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>44488.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="E4" s="6">
-        <v>44508.0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44482.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
-      </c>
-      <c r="E5" s="6">
-        <v>44550.0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>44482.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
-      </c>
-      <c r="E6" s="6">
-        <v>44520.0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>44488.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
+      <c r="D7" s="6">
+        <v>44515.0</v>
       </c>
       <c r="E7" s="6">
-        <v>44515.0</v>
-      </c>
-      <c r="F7" s="6">
         <v>44482.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
+        <v>1.238019306E9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1.238019306E9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>true</v>
       </c>
+      <c r="D8" s="6">
+        <v>44508.0</v>
+      </c>
       <c r="E8" s="6">
-        <v>44508.0</v>
-      </c>
-      <c r="F8" s="6">
         <v>44482.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>false</v>
       </c>
+      <c r="D9" s="6">
+        <v>44550.0</v>
+      </c>
       <c r="E9" s="6">
-        <v>44550.0</v>
-      </c>
-      <c r="F9" s="6">
         <v>44482.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
+        <v>1.238017717E9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1.238017717E9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44520.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>44488.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
-      <c r="E10" s="6">
-        <v>44520.0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>44488.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
+      <c r="D11" s="6">
+        <v>44515.0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>44482.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44508.0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>44482.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
-      <c r="E11" s="6">
-        <v>44515.0</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D13" s="6">
+        <v>44550.0</v>
+      </c>
+      <c r="E13" s="6">
         <v>44482.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4">
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
-      </c>
-      <c r="E12" s="6">
+        <v>false</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44473.0</v>
+      </c>
+      <c r="E14" s="7">
         <v>44508.0</v>
       </c>
-      <c r="F12" s="6">
-        <v>44482.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
-      </c>
-      <c r="E13" s="6">
-        <v>44550.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>44482.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="E14" s="7">
-        <v>44473.0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>44508.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
+      <c r="D15" s="7">
+        <v>44489.0</v>
       </c>
       <c r="E15" s="7">
-        <v>44489.0</v>
-      </c>
-      <c r="F15" s="7">
         <v>44537.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4">
+        <v>1.238016017E9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1.238016017E9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>true</v>
       </c>
+      <c r="D16" s="7">
+        <v>44481.0</v>
+      </c>
       <c r="E16" s="7">
-        <v>44481.0</v>
-      </c>
-      <c r="F16" s="7">
         <v>44548.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
+        <v>true</v>
+      </c>
+      <c r="D17" s="7">
+        <v>44482.0</v>
       </c>
       <c r="E17" s="7">
-        <v>44482.0</v>
-      </c>
-      <c r="F17" s="7">
         <v>44515.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4">
+        <v>1.238015828E9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1.238015828E9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="D18" s="7">
+        <v>44482.0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>44498.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
-      <c r="E18" s="7">
+      <c r="D19" s="7">
         <v>44482.0</v>
       </c>
-      <c r="F18" s="7">
-        <v>44498.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
-      </c>
       <c r="E19" s="7">
-        <v>44482.0</v>
-      </c>
-      <c r="F19" s="7">
         <v>44508.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4">
+        <v>1.238015034E9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="str">
         <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="D20" s="7">
+        <v>44482.0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>44550.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>1.238015034E9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="E20" s="7">
+      <c r="D21" s="7">
         <v>44482.0</v>
       </c>
-      <c r="F20" s="7">
-        <v>44550.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4">
+      <c r="E21" s="7">
+        <v>44547.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
-      </c>
-      <c r="E21" s="7">
-        <v>44482.0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>44547.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4">
+        <v>true</v>
+      </c>
+      <c r="D22" s="7">
+        <v>44483.0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>44513.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
-      </c>
-      <c r="E22" s="7">
+        <v>true</v>
+      </c>
+      <c r="D23" s="7">
         <v>44483.0</v>
       </c>
-      <c r="F22" s="7">
-        <v>44513.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
-      </c>
       <c r="E23" s="7">
-        <v>44483.0</v>
-      </c>
-      <c r="F23" s="7">
         <v>44553.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4">
+        <v>1.238013858E9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="str">
         <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="D24" s="7">
+        <v>44487.0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>44519.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="D25" s="7">
+        <v>44487.0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>44519.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>1.238013858E9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="D26" s="7">
+        <v>44487.0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>44522.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
-      <c r="E24" s="7">
+      <c r="D27" s="7">
         <v>44487.0</v>
       </c>
-      <c r="F24" s="7">
-        <v>44519.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
-      </c>
-      <c r="E25" s="7">
-        <v>44487.0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>44519.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
-      </c>
-      <c r="E26" s="7">
-        <v>44487.0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>44522.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
-      </c>
       <c r="E27" s="7">
-        <v>44487.0</v>
-      </c>
-      <c r="F27" s="7">
         <v>44512.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4">
+        <v>1.238013576E9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="str">
         <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="D28" s="7">
+        <v>44487.0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>44546.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="D29" s="7">
+        <v>44487.0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>44552.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="D30" s="7">
+        <v>44488.0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>44520.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
-        <v>1.238013576E9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="D31" s="7">
+        <v>44488.0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>44518.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
-      <c r="E28" s="7">
-        <v>44487.0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>44546.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4">
+      <c r="D32" s="7">
+        <v>44488.0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>44513.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="E29" s="7">
-        <v>44487.0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>44552.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4">
+      <c r="D33" s="7">
+        <v>44489.0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>44517.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="E30" s="7">
-        <v>44488.0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>44520.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4">
+      <c r="D34" s="7">
+        <v>44489.0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>44515.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="E31" s="7">
-        <v>44488.0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>44518.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4">
+      <c r="D35" s="7">
+        <v>44489.0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>44550.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="E32" s="7">
-        <v>44488.0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>44513.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4">
+      <c r="D36" s="7">
+        <v>44490.0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>44553.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="E33" s="7">
-        <v>44489.0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>44517.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4">
+      <c r="D37" s="7">
+        <v>44490.0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>44551.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="E34" s="7">
-        <v>44489.0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>44515.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
-      </c>
-      <c r="E35" s="7">
-        <v>44489.0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>44550.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
-      </c>
-      <c r="E36" s="7">
-        <v>44490.0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>44553.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
-      </c>
-      <c r="E37" s="7">
-        <v>44490.0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>44551.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
+      <c r="D38" s="7">
+        <v>44494.0</v>
       </c>
       <c r="E38" s="7">
-        <v>44494.0</v>
-      </c>
-      <c r="F38" s="7">
         <v>44529.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4">
+        <v>1.23801174E9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1.23801174E9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
+        <v>true</v>
+      </c>
+      <c r="D39" s="7">
+        <v>44494.0</v>
       </c>
       <c r="E39" s="7">
+        <v>44528.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="D40" s="7">
         <v>44494.0</v>
       </c>
-      <c r="F39" s="7">
-        <v>44528.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>false</v>
-      </c>
       <c r="E40" s="7">
-        <v>44494.0</v>
-      </c>
-      <c r="F40" s="7">
         <v>44529.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4">
+        <v>1.238011734E9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1.238011734E9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
+        <v>false</v>
+      </c>
+      <c r="D41" s="7">
+        <v>44494.0</v>
       </c>
       <c r="E41" s="7">
-        <v>44494.0</v>
-      </c>
-      <c r="F41" s="7">
         <v>44546.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4">
+        <v>1.238011733E9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1.238011733E9</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>false</v>
       </c>
+      <c r="D42" s="7">
+        <v>44495.0</v>
+      </c>
       <c r="E42" s="7">
-        <v>44495.0</v>
-      </c>
-      <c r="F42" s="7">
         <v>44550.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4">
+        <v>1.238011726E9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1.238011726E9</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="4" t="str">
-        <f t="shared" si="2"/>
+        <v>true</v>
+      </c>
+      <c r="D43" s="7">
+        <v>44496.0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>44531.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
-      <c r="E43" s="7">
+      <c r="D44" s="7">
         <v>44496.0</v>
       </c>
-      <c r="F43" s="7">
-        <v>44531.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4">
+      <c r="E44" s="7">
+        <v>44545.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>true</v>
-      </c>
-      <c r="E44" s="7">
-        <v>44496.0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>44545.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="4" t="str">
-        <f t="shared" si="2"/>
         <v>false</v>
       </c>
+      <c r="D45" s="7">
+        <v>44499.0</v>
+      </c>
       <c r="E45" s="7">
-        <v>44499.0</v>
-      </c>
-      <c r="F45" s="7">
         <v>44553.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="8"/>
+      <c r="A46" s="8"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
     </row>
     <row r="47">
-      <c r="B47" s="8"/>
+      <c r="A47" s="8"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
     </row>
     <row r="48">
-      <c r="B48" s="8"/>
+      <c r="A48" s="8"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
     </row>
     <row r="49">
-      <c r="B49" s="8"/>
+      <c r="A49" s="8"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
     </row>
     <row r="50">
-      <c r="B50" s="8"/>
+      <c r="A50" s="8"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
     </row>
     <row r="51">
-      <c r="B51" s="8"/>
+      <c r="A51" s="8"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
     </row>
     <row r="52">
-      <c r="B52" s="8"/>
+      <c r="A52" s="8"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
     </row>
     <row r="53">
-      <c r="B53" s="8"/>
+      <c r="A53" s="8"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
     </row>
     <row r="54">
+      <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
     </row>
     <row r="55">
+      <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
     </row>
     <row r="56">
+      <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
     </row>
     <row r="57">
+      <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
     </row>
     <row r="58">
+      <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
     </row>
     <row r="59">
+      <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
     </row>
     <row r="60">
+      <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
     </row>
     <row r="61">
+      <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
     </row>
     <row r="62">
+      <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
     </row>
     <row r="63">
+      <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
     </row>
     <row r="64">
+      <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
     </row>
     <row r="65">
+      <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
     </row>
     <row r="66">
+      <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
     </row>
     <row r="67">
+      <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
     </row>
     <row r="68">
+      <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
     </row>
     <row r="69">
+      <c r="D69" s="8"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
     </row>
     <row r="70">
+      <c r="D70" s="8"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
     </row>
     <row r="71">
+      <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
     </row>
     <row r="72">
+      <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
     </row>
     <row r="73">
+      <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
     </row>
     <row r="74">
+      <c r="D74" s="8"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
     </row>
     <row r="75">
+      <c r="D75" s="8"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
     </row>
     <row r="76">
+      <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
     </row>
     <row r="77">
+      <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
     </row>
     <row r="78">
+      <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
     </row>
     <row r="79">
+      <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
     </row>
     <row r="80">
+      <c r="D80" s="8"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
     </row>
     <row r="81">
+      <c r="D81" s="8"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
     </row>
     <row r="82">
+      <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
     </row>
     <row r="83">
+      <c r="D83" s="8"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
     </row>
     <row r="84">
+      <c r="D84" s="8"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
     </row>
     <row r="85">
+      <c r="D85" s="8"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
     </row>
     <row r="86">
+      <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
     </row>
     <row r="87">
+      <c r="D87" s="8"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
     </row>
     <row r="88">
+      <c r="D88" s="8"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
     </row>
     <row r="89">
+      <c r="D89" s="8"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
     </row>
     <row r="90">
+      <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
     </row>
     <row r="91">
+      <c r="D91" s="8"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
     </row>
     <row r="92">
+      <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
     </row>
     <row r="93">
+      <c r="D93" s="8"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
     </row>
     <row r="94">
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
     </row>
     <row r="95">
+      <c r="D95" s="8"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
     </row>
     <row r="96">
+      <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
     </row>
     <row r="97">
+      <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
     </row>
     <row r="98">
+      <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
     </row>
     <row r="99">
+      <c r="D99" s="8"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
     </row>
     <row r="100">
+      <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
     </row>
     <row r="101">
+      <c r="D101" s="8"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
     </row>
     <row r="102">
+      <c r="D102" s="8"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
     </row>
     <row r="103">
+      <c r="D103" s="8"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
     </row>
     <row r="104">
+      <c r="D104" s="8"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
     </row>
     <row r="105">
+      <c r="D105" s="8"/>
       <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
     </row>
     <row r="106">
+      <c r="D106" s="8"/>
       <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
     </row>
     <row r="107">
+      <c r="D107" s="8"/>
       <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
     </row>
     <row r="108">
+      <c r="D108" s="8"/>
       <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
     </row>
     <row r="109">
+      <c r="D109" s="8"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
     </row>
     <row r="110">
+      <c r="D110" s="8"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
     </row>
     <row r="111">
+      <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
     </row>
     <row r="112">
+      <c r="D112" s="8"/>
       <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
     </row>
     <row r="113">
+      <c r="D113" s="8"/>
       <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
     </row>
     <row r="114">
+      <c r="D114" s="8"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
     </row>
     <row r="115">
+      <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
     </row>
     <row r="116">
+      <c r="D116" s="8"/>
       <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
     </row>
     <row r="117">
+      <c r="D117" s="8"/>
       <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
     </row>
     <row r="118">
+      <c r="D118" s="8"/>
       <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
     </row>
     <row r="119">
+      <c r="D119" s="8"/>
       <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
     </row>
     <row r="120">
+      <c r="D120" s="8"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
     </row>
     <row r="121">
+      <c r="D121" s="8"/>
       <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
     </row>
     <row r="122">
+      <c r="D122" s="8"/>
       <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
     </row>
     <row r="123">
+      <c r="D123" s="8"/>
       <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
     </row>
     <row r="124">
+      <c r="D124" s="8"/>
       <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
     </row>
     <row r="125">
+      <c r="D125" s="8"/>
       <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
     </row>
     <row r="126">
+      <c r="D126" s="8"/>
       <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
     </row>
     <row r="127">
+      <c r="D127" s="8"/>
       <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
     </row>
     <row r="128">
+      <c r="D128" s="8"/>
       <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
     </row>
     <row r="129">
+      <c r="D129" s="8"/>
       <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
     </row>
     <row r="130">
+      <c r="D130" s="8"/>
       <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
     </row>
     <row r="131">
+      <c r="D131" s="8"/>
       <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
     </row>
     <row r="132">
+      <c r="D132" s="8"/>
       <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
     </row>
     <row r="133">
+      <c r="D133" s="8"/>
       <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
     </row>
     <row r="134">
+      <c r="D134" s="8"/>
       <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
     </row>
     <row r="135">
+      <c r="D135" s="8"/>
       <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
     </row>
     <row r="136">
+      <c r="D136" s="8"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
     </row>
     <row r="137">
+      <c r="D137" s="8"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
     </row>
     <row r="138">
+      <c r="D138" s="8"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
     </row>
     <row r="139">
+      <c r="D139" s="8"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
     </row>
     <row r="140">
+      <c r="D140" s="8"/>
       <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
     </row>
     <row r="141">
+      <c r="D141" s="8"/>
       <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
     </row>
     <row r="142">
+      <c r="D142" s="8"/>
       <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
     </row>
     <row r="143">
+      <c r="D143" s="8"/>
       <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
     </row>
     <row r="144">
+      <c r="D144" s="8"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
     </row>
     <row r="145">
+      <c r="D145" s="8"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
     </row>
     <row r="146">
+      <c r="D146" s="8"/>
       <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
     </row>
     <row r="147">
+      <c r="D147" s="8"/>
       <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
     </row>
     <row r="148">
+      <c r="D148" s="8"/>
       <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
     </row>
     <row r="149">
+      <c r="D149" s="8"/>
       <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
     </row>
     <row r="150">
+      <c r="D150" s="8"/>
       <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
     </row>
     <row r="151">
+      <c r="D151" s="8"/>
       <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
     </row>
     <row r="152">
+      <c r="D152" s="8"/>
       <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
     </row>
     <row r="153">
+      <c r="D153" s="8"/>
       <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
     </row>
     <row r="154">
+      <c r="D154" s="8"/>
       <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
     </row>
     <row r="155">
+      <c r="D155" s="8"/>
       <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
     </row>
     <row r="156">
+      <c r="D156" s="8"/>
       <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
     </row>
     <row r="157">
+      <c r="D157" s="8"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
     </row>
     <row r="158">
+      <c r="D158" s="8"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
     </row>
     <row r="159">
+      <c r="D159" s="8"/>
       <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
     </row>
     <row r="160">
+      <c r="D160" s="8"/>
       <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
     </row>
     <row r="161">
+      <c r="D161" s="8"/>
       <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
     </row>
     <row r="162">
+      <c r="D162" s="8"/>
       <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
     </row>
     <row r="163">
+      <c r="D163" s="8"/>
       <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
     </row>
     <row r="164">
+      <c r="D164" s="8"/>
       <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
     </row>
     <row r="165">
+      <c r="D165" s="8"/>
       <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
     </row>
     <row r="166">
+      <c r="D166" s="8"/>
       <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
     </row>
     <row r="167">
+      <c r="D167" s="8"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
     </row>
     <row r="168">
+      <c r="D168" s="8"/>
       <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
     </row>
     <row r="169">
+      <c r="D169" s="8"/>
       <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
     </row>
     <row r="170">
+      <c r="D170" s="8"/>
       <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
     </row>
     <row r="171">
+      <c r="D171" s="8"/>
       <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
     </row>
     <row r="172">
+      <c r="D172" s="8"/>
       <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
     </row>
     <row r="173">
+      <c r="D173" s="8"/>
       <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
     </row>
     <row r="174">
+      <c r="D174" s="8"/>
       <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
     </row>
     <row r="175">
+      <c r="D175" s="8"/>
       <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
     </row>
     <row r="176">
+      <c r="D176" s="8"/>
       <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
     </row>
     <row r="177">
+      <c r="D177" s="8"/>
       <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
     </row>
     <row r="178">
+      <c r="D178" s="8"/>
       <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
     </row>
     <row r="179">
+      <c r="D179" s="8"/>
       <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
     </row>
     <row r="180">
+      <c r="D180" s="8"/>
       <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
     </row>
     <row r="181">
+      <c r="D181" s="8"/>
       <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
     </row>
     <row r="182">
+      <c r="D182" s="8"/>
       <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
     </row>
     <row r="183">
+      <c r="D183" s="8"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
     </row>
     <row r="184">
+      <c r="D184" s="8"/>
       <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
     </row>
     <row r="185">
+      <c r="D185" s="8"/>
       <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
     </row>
     <row r="186">
+      <c r="D186" s="8"/>
       <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
     </row>
     <row r="187">
+      <c r="D187" s="8"/>
       <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
     </row>
     <row r="188">
+      <c r="D188" s="8"/>
       <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
     </row>
     <row r="189">
+      <c r="D189" s="8"/>
       <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
     </row>
     <row r="190">
+      <c r="D190" s="8"/>
       <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
     </row>
     <row r="191">
+      <c r="D191" s="8"/>
       <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
     </row>
     <row r="192">
+      <c r="D192" s="8"/>
       <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
     </row>
     <row r="193">
+      <c r="D193" s="8"/>
       <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
     </row>
     <row r="194">
+      <c r="D194" s="8"/>
       <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
     </row>
     <row r="195">
+      <c r="D195" s="8"/>
       <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
     </row>
     <row r="196">
+      <c r="D196" s="8"/>
       <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
     </row>
     <row r="197">
+      <c r="D197" s="8"/>
       <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
     </row>
     <row r="198">
+      <c r="D198" s="8"/>
       <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
     </row>
     <row r="199">
+      <c r="D199" s="8"/>
       <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
     </row>
     <row r="200">
+      <c r="D200" s="8"/>
       <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
     </row>
     <row r="201">
+      <c r="D201" s="8"/>
       <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
     </row>
     <row r="202">
+      <c r="D202" s="8"/>
       <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
     </row>
     <row r="203">
+      <c r="D203" s="8"/>
       <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
     </row>
     <row r="204">
+      <c r="D204" s="8"/>
       <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
     </row>
     <row r="205">
+      <c r="D205" s="8"/>
       <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
     </row>
     <row r="206">
+      <c r="D206" s="8"/>
       <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
     </row>
     <row r="207">
+      <c r="D207" s="8"/>
       <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
     </row>
     <row r="208">
+      <c r="D208" s="8"/>
       <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
     </row>
     <row r="209">
+      <c r="D209" s="8"/>
       <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
     </row>
     <row r="210">
+      <c r="D210" s="8"/>
       <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
     </row>
     <row r="211">
+      <c r="D211" s="8"/>
       <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
     </row>
     <row r="212">
+      <c r="D212" s="8"/>
       <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
     </row>
     <row r="213">
+      <c r="D213" s="8"/>
       <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
     </row>
     <row r="214">
+      <c r="D214" s="8"/>
       <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
     </row>
     <row r="215">
+      <c r="D215" s="8"/>
       <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
     </row>
     <row r="216">
+      <c r="D216" s="8"/>
       <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
     </row>
     <row r="217">
+      <c r="D217" s="8"/>
       <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
     </row>
     <row r="218">
+      <c r="D218" s="8"/>
       <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
     </row>
     <row r="219">
+      <c r="D219" s="8"/>
       <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
     </row>
     <row r="220">
+      <c r="D220" s="8"/>
       <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
     </row>
     <row r="221">
+      <c r="D221" s="8"/>
       <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
     </row>
     <row r="222">
+      <c r="D222" s="8"/>
       <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
     </row>
     <row r="223">
+      <c r="D223" s="8"/>
       <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
     </row>
     <row r="224">
+      <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
     </row>
     <row r="225">
+      <c r="D225" s="8"/>
       <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
     </row>
     <row r="226">
+      <c r="D226" s="8"/>
       <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
     </row>
     <row r="227">
+      <c r="D227" s="8"/>
       <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
     </row>
     <row r="228">
+      <c r="D228" s="8"/>
       <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
     </row>
     <row r="229">
+      <c r="D229" s="8"/>
       <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
     </row>
     <row r="230">
+      <c r="D230" s="8"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
     </row>
     <row r="231">
+      <c r="D231" s="8"/>
       <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
     </row>
     <row r="232">
+      <c r="D232" s="8"/>
       <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
     </row>
     <row r="233">
+      <c r="D233" s="8"/>
       <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
     </row>
     <row r="234">
+      <c r="D234" s="8"/>
       <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
     </row>
     <row r="235">
+      <c r="D235" s="8"/>
       <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
     </row>
     <row r="236">
+      <c r="D236" s="8"/>
       <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
     </row>
     <row r="237">
+      <c r="D237" s="8"/>
       <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
     </row>
     <row r="238">
+      <c r="D238" s="8"/>
       <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
     </row>
     <row r="239">
+      <c r="D239" s="8"/>
       <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
     </row>
     <row r="240">
+      <c r="D240" s="8"/>
       <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
     </row>
     <row r="241">
+      <c r="D241" s="8"/>
       <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
     </row>
     <row r="242">
+      <c r="D242" s="8"/>
       <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
     </row>
     <row r="243">
+      <c r="D243" s="8"/>
       <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
     </row>
     <row r="244">
+      <c r="D244" s="8"/>
       <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
     </row>
     <row r="245">
+      <c r="D245" s="8"/>
       <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
     </row>
     <row r="246">
+      <c r="D246" s="8"/>
       <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
     </row>
     <row r="247">
+      <c r="D247" s="8"/>
       <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
     </row>
     <row r="248">
+      <c r="D248" s="8"/>
       <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
     </row>
     <row r="249">
+      <c r="D249" s="8"/>
       <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
     </row>
     <row r="250">
+      <c r="D250" s="8"/>
       <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
     </row>
     <row r="251">
+      <c r="D251" s="8"/>
       <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
     </row>
     <row r="252">
+      <c r="D252" s="8"/>
       <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
     </row>
     <row r="253">
+      <c r="D253" s="8"/>
       <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
     </row>
     <row r="254">
+      <c r="D254" s="8"/>
       <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
     </row>
     <row r="255">
+      <c r="D255" s="8"/>
       <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
     </row>
     <row r="256">
+      <c r="D256" s="8"/>
       <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
     </row>
     <row r="257">
+      <c r="D257" s="8"/>
       <c r="E257" s="8"/>
-      <c r="F257" s="8"/>
     </row>
     <row r="258">
+      <c r="D258" s="8"/>
       <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
     </row>
     <row r="259">
+      <c r="D259" s="8"/>
       <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
     </row>
     <row r="260">
+      <c r="D260" s="8"/>
       <c r="E260" s="8"/>
-      <c r="F260" s="8"/>
     </row>
     <row r="261">
+      <c r="D261" s="8"/>
       <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
     </row>
     <row r="262">
+      <c r="D262" s="8"/>
       <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
     </row>
     <row r="263">
+      <c r="D263" s="8"/>
       <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
     </row>
     <row r="264">
+      <c r="D264" s="8"/>
       <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
     </row>
     <row r="265">
+      <c r="D265" s="8"/>
       <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
     </row>
     <row r="266">
+      <c r="D266" s="8"/>
       <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
     </row>
     <row r="267">
+      <c r="D267" s="8"/>
       <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
     </row>
     <row r="268">
+      <c r="D268" s="8"/>
       <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
     </row>
     <row r="269">
+      <c r="D269" s="8"/>
       <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
     </row>
     <row r="270">
+      <c r="D270" s="8"/>
       <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
     </row>
     <row r="271">
+      <c r="D271" s="8"/>
       <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
     </row>
     <row r="272">
+      <c r="D272" s="8"/>
       <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
     </row>
     <row r="273">
+      <c r="D273" s="8"/>
       <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
     </row>
     <row r="274">
+      <c r="D274" s="8"/>
       <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
     </row>
     <row r="275">
+      <c r="D275" s="8"/>
       <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
     </row>
     <row r="276">
+      <c r="D276" s="8"/>
       <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
     </row>
     <row r="277">
+      <c r="D277" s="8"/>
       <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
     </row>
     <row r="278">
+      <c r="D278" s="8"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
     </row>
     <row r="279">
+      <c r="D279" s="8"/>
       <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
     </row>
     <row r="280">
+      <c r="D280" s="8"/>
       <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
     </row>
     <row r="281">
+      <c r="D281" s="8"/>
       <c r="E281" s="8"/>
-      <c r="F281" s="8"/>
     </row>
     <row r="282">
+      <c r="D282" s="8"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
     </row>
     <row r="283">
+      <c r="D283" s="8"/>
       <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
     </row>
     <row r="284">
+      <c r="D284" s="8"/>
       <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
     </row>
     <row r="285">
+      <c r="D285" s="8"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
     </row>
     <row r="286">
+      <c r="D286" s="8"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
     </row>
     <row r="287">
+      <c r="D287" s="8"/>
       <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
     </row>
     <row r="288">
+      <c r="D288" s="8"/>
       <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
     </row>
     <row r="289">
+      <c r="D289" s="8"/>
       <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
     </row>
     <row r="290">
+      <c r="D290" s="8"/>
       <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
     </row>
     <row r="291">
+      <c r="D291" s="8"/>
       <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
     </row>
     <row r="292">
+      <c r="D292" s="8"/>
       <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
     </row>
     <row r="293">
+      <c r="D293" s="8"/>
       <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
     </row>
     <row r="294">
+      <c r="D294" s="8"/>
       <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
     </row>
     <row r="295">
+      <c r="D295" s="8"/>
       <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
     </row>
     <row r="296">
+      <c r="D296" s="8"/>
       <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
     </row>
     <row r="297">
+      <c r="D297" s="8"/>
       <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
     </row>
     <row r="298">
+      <c r="D298" s="8"/>
       <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
     </row>
     <row r="299">
+      <c r="D299" s="8"/>
       <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
     </row>
     <row r="300">
+      <c r="D300" s="8"/>
       <c r="E300" s="8"/>
-      <c r="F300" s="8"/>
     </row>
     <row r="301">
+      <c r="D301" s="8"/>
       <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
     </row>
     <row r="302">
+      <c r="D302" s="8"/>
       <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
     </row>
     <row r="303">
+      <c r="D303" s="8"/>
       <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
     </row>
     <row r="304">
+      <c r="D304" s="8"/>
       <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
     </row>
     <row r="305">
+      <c r="D305" s="8"/>
       <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
     </row>
     <row r="306">
+      <c r="D306" s="8"/>
       <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
     </row>
     <row r="307">
+      <c r="D307" s="8"/>
       <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
     </row>
     <row r="308">
+      <c r="D308" s="8"/>
       <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
     </row>
     <row r="309">
+      <c r="D309" s="8"/>
       <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
     </row>
     <row r="310">
+      <c r="D310" s="8"/>
       <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
     </row>
     <row r="311">
+      <c r="D311" s="8"/>
       <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
     </row>
     <row r="312">
+      <c r="D312" s="8"/>
       <c r="E312" s="8"/>
-      <c r="F312" s="8"/>
     </row>
     <row r="313">
+      <c r="D313" s="8"/>
       <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
     </row>
     <row r="314">
+      <c r="D314" s="8"/>
       <c r="E314" s="8"/>
-      <c r="F314" s="8"/>
     </row>
     <row r="315">
+      <c r="D315" s="8"/>
       <c r="E315" s="8"/>
-      <c r="F315" s="8"/>
     </row>
     <row r="316">
+      <c r="D316" s="8"/>
       <c r="E316" s="8"/>
-      <c r="F316" s="8"/>
     </row>
     <row r="317">
+      <c r="D317" s="8"/>
       <c r="E317" s="8"/>
-      <c r="F317" s="8"/>
     </row>
     <row r="318">
+      <c r="D318" s="8"/>
       <c r="E318" s="8"/>
-      <c r="F318" s="8"/>
     </row>
     <row r="319">
+      <c r="D319" s="8"/>
       <c r="E319" s="8"/>
-      <c r="F319" s="8"/>
     </row>
     <row r="320">
+      <c r="D320" s="8"/>
       <c r="E320" s="8"/>
-      <c r="F320" s="8"/>
     </row>
     <row r="321">
+      <c r="D321" s="8"/>
       <c r="E321" s="8"/>
-      <c r="F321" s="8"/>
     </row>
     <row r="322">
+      <c r="D322" s="8"/>
       <c r="E322" s="8"/>
-      <c r="F322" s="8"/>
     </row>
     <row r="323">
+      <c r="D323" s="8"/>
       <c r="E323" s="8"/>
-      <c r="F323" s="8"/>
     </row>
     <row r="324">
+      <c r="D324" s="8"/>
       <c r="E324" s="8"/>
-      <c r="F324" s="8"/>
     </row>
     <row r="325">
+      <c r="D325" s="8"/>
       <c r="E325" s="8"/>
-      <c r="F325" s="8"/>
     </row>
     <row r="326">
+      <c r="D326" s="8"/>
       <c r="E326" s="8"/>
-      <c r="F326" s="8"/>
     </row>
     <row r="327">
+      <c r="D327" s="8"/>
       <c r="E327" s="8"/>
-      <c r="F327" s="8"/>
     </row>
     <row r="328">
+      <c r="D328" s="8"/>
       <c r="E328" s="8"/>
-      <c r="F328" s="8"/>
     </row>
     <row r="329">
+      <c r="D329" s="8"/>
       <c r="E329" s="8"/>
-      <c r="F329" s="8"/>
     </row>
     <row r="330">
+      <c r="D330" s="8"/>
       <c r="E330" s="8"/>
-      <c r="F330" s="8"/>
     </row>
     <row r="331">
+      <c r="D331" s="8"/>
       <c r="E331" s="8"/>
-      <c r="F331" s="8"/>
     </row>
     <row r="332">
+      <c r="D332" s="8"/>
       <c r="E332" s="8"/>
-      <c r="F332" s="8"/>
     </row>
     <row r="333">
+      <c r="D333" s="8"/>
       <c r="E333" s="8"/>
-      <c r="F333" s="8"/>
     </row>
     <row r="334">
+      <c r="D334" s="8"/>
       <c r="E334" s="8"/>
-      <c r="F334" s="8"/>
     </row>
     <row r="335">
+      <c r="D335" s="8"/>
       <c r="E335" s="8"/>
-      <c r="F335" s="8"/>
     </row>
     <row r="336">
+      <c r="D336" s="8"/>
       <c r="E336" s="8"/>
-      <c r="F336" s="8"/>
     </row>
     <row r="337">
+      <c r="D337" s="8"/>
       <c r="E337" s="8"/>
-      <c r="F337" s="8"/>
     </row>
     <row r="338">
+      <c r="D338" s="8"/>
       <c r="E338" s="8"/>
-      <c r="F338" s="8"/>
     </row>
     <row r="339">
+      <c r="D339" s="8"/>
       <c r="E339" s="8"/>
-      <c r="F339" s="8"/>
     </row>
     <row r="340">
+      <c r="D340" s="8"/>
       <c r="E340" s="8"/>
-      <c r="F340" s="8"/>
     </row>
     <row r="341">
+      <c r="D341" s="8"/>
       <c r="E341" s="8"/>
-      <c r="F341" s="8"/>
     </row>
     <row r="342">
+      <c r="D342" s="8"/>
       <c r="E342" s="8"/>
-      <c r="F342" s="8"/>
     </row>
     <row r="343">
+      <c r="D343" s="8"/>
       <c r="E343" s="8"/>
-      <c r="F343" s="8"/>
     </row>
     <row r="344">
+      <c r="D344" s="8"/>
       <c r="E344" s="8"/>
-      <c r="F344" s="8"/>
     </row>
     <row r="345">
+      <c r="D345" s="8"/>
       <c r="E345" s="8"/>
-      <c r="F345" s="8"/>
     </row>
     <row r="346">
+      <c r="D346" s="8"/>
       <c r="E346" s="8"/>
-      <c r="F346" s="8"/>
     </row>
     <row r="347">
+      <c r="D347" s="8"/>
       <c r="E347" s="8"/>
-      <c r="F347" s="8"/>
     </row>
     <row r="348">
+      <c r="D348" s="8"/>
       <c r="E348" s="8"/>
-      <c r="F348" s="8"/>
     </row>
     <row r="349">
+      <c r="D349" s="8"/>
       <c r="E349" s="8"/>
-      <c r="F349" s="8"/>
     </row>
     <row r="350">
+      <c r="D350" s="8"/>
       <c r="E350" s="8"/>
-      <c r="F350" s="8"/>
     </row>
     <row r="351">
+      <c r="D351" s="8"/>
       <c r="E351" s="8"/>
-      <c r="F351" s="8"/>
     </row>
     <row r="352">
+      <c r="D352" s="8"/>
       <c r="E352" s="8"/>
-      <c r="F352" s="8"/>
     </row>
     <row r="353">
+      <c r="D353" s="8"/>
       <c r="E353" s="8"/>
-      <c r="F353" s="8"/>
     </row>
     <row r="354">
+      <c r="D354" s="8"/>
       <c r="E354" s="8"/>
-      <c r="F354" s="8"/>
     </row>
     <row r="355">
+      <c r="D355" s="8"/>
       <c r="E355" s="8"/>
-      <c r="F355" s="8"/>
     </row>
     <row r="356">
+      <c r="D356" s="8"/>
       <c r="E356" s="8"/>
-      <c r="F356" s="8"/>
     </row>
     <row r="357">
+      <c r="D357" s="8"/>
       <c r="E357" s="8"/>
-      <c r="F357" s="8"/>
     </row>
     <row r="358">
+      <c r="D358" s="8"/>
       <c r="E358" s="8"/>
-      <c r="F358" s="8"/>
     </row>
     <row r="359">
+      <c r="D359" s="8"/>
       <c r="E359" s="8"/>
-      <c r="F359" s="8"/>
     </row>
     <row r="360">
+      <c r="D360" s="8"/>
       <c r="E360" s="8"/>
-      <c r="F360" s="8"/>
     </row>
     <row r="361">
+      <c r="D361" s="8"/>
       <c r="E361" s="8"/>
-      <c r="F361" s="8"/>
     </row>
     <row r="362">
+      <c r="D362" s="8"/>
       <c r="E362" s="8"/>
-      <c r="F362" s="8"/>
     </row>
     <row r="363">
+      <c r="D363" s="8"/>
       <c r="E363" s="8"/>
-      <c r="F363" s="8"/>
     </row>
     <row r="364">
+      <c r="D364" s="8"/>
       <c r="E364" s="8"/>
-      <c r="F364" s="8"/>
     </row>
     <row r="365">
+      <c r="D365" s="8"/>
       <c r="E365" s="8"/>
-      <c r="F365" s="8"/>
     </row>
     <row r="366">
+      <c r="D366" s="8"/>
       <c r="E366" s="8"/>
-      <c r="F366" s="8"/>
     </row>
     <row r="367">
+      <c r="D367" s="8"/>
       <c r="E367" s="8"/>
-      <c r="F367" s="8"/>
     </row>
     <row r="368">
+      <c r="D368" s="8"/>
       <c r="E368" s="8"/>
-      <c r="F368" s="8"/>
     </row>
     <row r="369">
+      <c r="D369" s="8"/>
       <c r="E369" s="8"/>
-      <c r="F369" s="8"/>
     </row>
     <row r="370">
+      <c r="D370" s="8"/>
       <c r="E370" s="8"/>
-      <c r="F370" s="8"/>
     </row>
     <row r="371">
+      <c r="D371" s="8"/>
       <c r="E371" s="8"/>
-      <c r="F371" s="8"/>
     </row>
     <row r="372">
+      <c r="D372" s="8"/>
       <c r="E372" s="8"/>
-      <c r="F372" s="8"/>
     </row>
     <row r="373">
+      <c r="D373" s="8"/>
       <c r="E373" s="8"/>
-      <c r="F373" s="8"/>
     </row>
     <row r="374">
+      <c r="D374" s="8"/>
       <c r="E374" s="8"/>
-      <c r="F374" s="8"/>
     </row>
     <row r="375">
+      <c r="D375" s="8"/>
       <c r="E375" s="8"/>
-      <c r="F375" s="8"/>
     </row>
     <row r="376">
+      <c r="D376" s="8"/>
       <c r="E376" s="8"/>
-      <c r="F376" s="8"/>
     </row>
     <row r="377">
+      <c r="D377" s="8"/>
       <c r="E377" s="8"/>
-      <c r="F377" s="8"/>
     </row>
     <row r="378">
+      <c r="D378" s="8"/>
       <c r="E378" s="8"/>
-      <c r="F378" s="8"/>
     </row>
     <row r="379">
+      <c r="D379" s="8"/>
       <c r="E379" s="8"/>
-      <c r="F379" s="8"/>
     </row>
     <row r="380">
+      <c r="D380" s="8"/>
       <c r="E380" s="8"/>
-      <c r="F380" s="8"/>
     </row>
     <row r="381">
+      <c r="D381" s="8"/>
       <c r="E381" s="8"/>
-      <c r="F381" s="8"/>
     </row>
     <row r="382">
+      <c r="D382" s="8"/>
       <c r="E382" s="8"/>
-      <c r="F382" s="8"/>
     </row>
     <row r="383">
+      <c r="D383" s="8"/>
       <c r="E383" s="8"/>
-      <c r="F383" s="8"/>
     </row>
     <row r="384">
+      <c r="D384" s="8"/>
       <c r="E384" s="8"/>
-      <c r="F384" s="8"/>
     </row>
     <row r="385">
+      <c r="D385" s="8"/>
       <c r="E385" s="8"/>
-      <c r="F385" s="8"/>
     </row>
     <row r="386">
+      <c r="D386" s="8"/>
       <c r="E386" s="8"/>
-      <c r="F386" s="8"/>
     </row>
     <row r="387">
+      <c r="D387" s="8"/>
       <c r="E387" s="8"/>
-      <c r="F387" s="8"/>
     </row>
     <row r="388">
+      <c r="D388" s="8"/>
       <c r="E388" s="8"/>
-      <c r="F388" s="8"/>
     </row>
     <row r="389">
+      <c r="D389" s="8"/>
       <c r="E389" s="8"/>
-      <c r="F389" s="8"/>
     </row>
     <row r="390">
+      <c r="D390" s="8"/>
       <c r="E390" s="8"/>
-      <c r="F390" s="8"/>
     </row>
     <row r="391">
+      <c r="D391" s="8"/>
       <c r="E391" s="8"/>
-      <c r="F391" s="8"/>
     </row>
     <row r="392">
+      <c r="D392" s="8"/>
       <c r="E392" s="8"/>
-      <c r="F392" s="8"/>
     </row>
     <row r="393">
+      <c r="D393" s="8"/>
       <c r="E393" s="8"/>
-      <c r="F393" s="8"/>
     </row>
     <row r="394">
+      <c r="D394" s="8"/>
       <c r="E394" s="8"/>
-      <c r="F394" s="8"/>
     </row>
     <row r="395">
+      <c r="D395" s="8"/>
       <c r="E395" s="8"/>
-      <c r="F395" s="8"/>
     </row>
     <row r="396">
+      <c r="D396" s="8"/>
       <c r="E396" s="8"/>
-      <c r="F396" s="8"/>
     </row>
     <row r="397">
+      <c r="D397" s="8"/>
       <c r="E397" s="8"/>
-      <c r="F397" s="8"/>
     </row>
     <row r="398">
+      <c r="D398" s="8"/>
       <c r="E398" s="8"/>
-      <c r="F398" s="8"/>
     </row>
     <row r="399">
+      <c r="D399" s="8"/>
       <c r="E399" s="8"/>
-      <c r="F399" s="8"/>
     </row>
     <row r="400">
+      <c r="D400" s="8"/>
       <c r="E400" s="8"/>
-      <c r="F400" s="8"/>
     </row>
     <row r="401">
+      <c r="D401" s="8"/>
       <c r="E401" s="8"/>
-      <c r="F401" s="8"/>
     </row>
     <row r="402">
+      <c r="D402" s="8"/>
       <c r="E402" s="8"/>
-      <c r="F402" s="8"/>
     </row>
     <row r="403">
+      <c r="D403" s="8"/>
       <c r="E403" s="8"/>
-      <c r="F403" s="8"/>
     </row>
     <row r="404">
+      <c r="D404" s="8"/>
       <c r="E404" s="8"/>
-      <c r="F404" s="8"/>
     </row>
     <row r="405">
+      <c r="D405" s="8"/>
       <c r="E405" s="8"/>
-      <c r="F405" s="8"/>
     </row>
     <row r="406">
+      <c r="D406" s="8"/>
       <c r="E406" s="8"/>
-      <c r="F406" s="8"/>
     </row>
     <row r="407">
+      <c r="D407" s="8"/>
       <c r="E407" s="8"/>
-      <c r="F407" s="8"/>
     </row>
     <row r="408">
+      <c r="D408" s="8"/>
       <c r="E408" s="8"/>
-      <c r="F408" s="8"/>
     </row>
     <row r="409">
+      <c r="D409" s="8"/>
       <c r="E409" s="8"/>
-      <c r="F409" s="8"/>
     </row>
     <row r="410">
+      <c r="D410" s="8"/>
       <c r="E410" s="8"/>
-      <c r="F410" s="8"/>
     </row>
     <row r="411">
+      <c r="D411" s="8"/>
       <c r="E411" s="8"/>
-      <c r="F411" s="8"/>
     </row>
     <row r="412">
+      <c r="D412" s="8"/>
       <c r="E412" s="8"/>
-      <c r="F412" s="8"/>
     </row>
     <row r="413">
+      <c r="D413" s="8"/>
       <c r="E413" s="8"/>
-      <c r="F413" s="8"/>
     </row>
     <row r="414">
+      <c r="D414" s="8"/>
       <c r="E414" s="8"/>
-      <c r="F414" s="8"/>
     </row>
     <row r="415">
+      <c r="D415" s="8"/>
       <c r="E415" s="8"/>
-      <c r="F415" s="8"/>
     </row>
     <row r="416">
+      <c r="D416" s="8"/>
       <c r="E416" s="8"/>
-      <c r="F416" s="8"/>
     </row>
     <row r="417">
+      <c r="D417" s="8"/>
       <c r="E417" s="8"/>
-      <c r="F417" s="8"/>
     </row>
     <row r="418">
+      <c r="D418" s="8"/>
       <c r="E418" s="8"/>
-      <c r="F418" s="8"/>
     </row>
     <row r="419">
+      <c r="D419" s="8"/>
       <c r="E419" s="8"/>
-      <c r="F419" s="8"/>
     </row>
     <row r="420">
+      <c r="D420" s="8"/>
       <c r="E420" s="8"/>
-      <c r="F420" s="8"/>
     </row>
     <row r="421">
+      <c r="D421" s="8"/>
       <c r="E421" s="8"/>
-      <c r="F421" s="8"/>
     </row>
     <row r="422">
+      <c r="D422" s="8"/>
       <c r="E422" s="8"/>
-      <c r="F422" s="8"/>
     </row>
     <row r="423">
+      <c r="D423" s="8"/>
       <c r="E423" s="8"/>
-      <c r="F423" s="8"/>
     </row>
     <row r="424">
+      <c r="D424" s="8"/>
       <c r="E424" s="8"/>
-      <c r="F424" s="8"/>
     </row>
     <row r="425">
+      <c r="D425" s="8"/>
       <c r="E425" s="8"/>
-      <c r="F425" s="8"/>
     </row>
     <row r="426">
+      <c r="D426" s="8"/>
       <c r="E426" s="8"/>
-      <c r="F426" s="8"/>
     </row>
     <row r="427">
+      <c r="D427" s="8"/>
       <c r="E427" s="8"/>
-      <c r="F427" s="8"/>
     </row>
     <row r="428">
+      <c r="D428" s="8"/>
       <c r="E428" s="8"/>
-      <c r="F428" s="8"/>
     </row>
     <row r="429">
+      <c r="D429" s="8"/>
       <c r="E429" s="8"/>
-      <c r="F429" s="8"/>
     </row>
     <row r="430">
+      <c r="D430" s="8"/>
       <c r="E430" s="8"/>
-      <c r="F430" s="8"/>
     </row>
     <row r="431">
+      <c r="D431" s="8"/>
       <c r="E431" s="8"/>
-      <c r="F431" s="8"/>
     </row>
     <row r="432">
+      <c r="D432" s="8"/>
       <c r="E432" s="8"/>
-      <c r="F432" s="8"/>
     </row>
     <row r="433">
+      <c r="D433" s="8"/>
       <c r="E433" s="8"/>
-      <c r="F433" s="8"/>
     </row>
     <row r="434">
+      <c r="D434" s="8"/>
       <c r="E434" s="8"/>
-      <c r="F434" s="8"/>
     </row>
     <row r="435">
+      <c r="D435" s="8"/>
       <c r="E435" s="8"/>
-      <c r="F435" s="8"/>
     </row>
     <row r="436">
+      <c r="D436" s="8"/>
       <c r="E436" s="8"/>
-      <c r="F436" s="8"/>
     </row>
     <row r="437">
+      <c r="D437" s="8"/>
       <c r="E437" s="8"/>
-      <c r="F437" s="8"/>
     </row>
     <row r="438">
+      <c r="D438" s="8"/>
       <c r="E438" s="8"/>
-      <c r="F438" s="8"/>
     </row>
     <row r="439">
+      <c r="D439" s="8"/>
       <c r="E439" s="8"/>
-      <c r="F439" s="8"/>
     </row>
     <row r="440">
+      <c r="D440" s="8"/>
       <c r="E440" s="8"/>
-      <c r="F440" s="8"/>
     </row>
     <row r="441">
+      <c r="D441" s="8"/>
       <c r="E441" s="8"/>
-      <c r="F441" s="8"/>
     </row>
     <row r="442">
+      <c r="D442" s="8"/>
       <c r="E442" s="8"/>
-      <c r="F442" s="8"/>
     </row>
     <row r="443">
+      <c r="D443" s="8"/>
       <c r="E443" s="8"/>
-      <c r="F443" s="8"/>
     </row>
     <row r="444">
+      <c r="D444" s="8"/>
       <c r="E444" s="8"/>
-      <c r="F444" s="8"/>
     </row>
     <row r="445">
+      <c r="D445" s="8"/>
       <c r="E445" s="8"/>
-      <c r="F445" s="8"/>
     </row>
     <row r="446">
+      <c r="D446" s="8"/>
       <c r="E446" s="8"/>
-      <c r="F446" s="8"/>
     </row>
     <row r="447">
+      <c r="D447" s="8"/>
       <c r="E447" s="8"/>
-      <c r="F447" s="8"/>
     </row>
     <row r="448">
+      <c r="D448" s="8"/>
       <c r="E448" s="8"/>
-      <c r="F448" s="8"/>
     </row>
     <row r="449">
+      <c r="D449" s="8"/>
       <c r="E449" s="8"/>
-      <c r="F449" s="8"/>
     </row>
     <row r="450">
+      <c r="D450" s="8"/>
       <c r="E450" s="8"/>
-      <c r="F450" s="8"/>
     </row>
     <row r="451">
+      <c r="D451" s="8"/>
       <c r="E451" s="8"/>
-      <c r="F451" s="8"/>
     </row>
     <row r="452">
+      <c r="D452" s="8"/>
       <c r="E452" s="8"/>
-      <c r="F452" s="8"/>
     </row>
     <row r="453">
+      <c r="D453" s="8"/>
       <c r="E453" s="8"/>
-      <c r="F453" s="8"/>
     </row>
     <row r="454">
+      <c r="D454" s="8"/>
       <c r="E454" s="8"/>
-      <c r="F454" s="8"/>
     </row>
     <row r="455">
+      <c r="D455" s="8"/>
       <c r="E455" s="8"/>
-      <c r="F455" s="8"/>
     </row>
     <row r="456">
+      <c r="D456" s="8"/>
       <c r="E456" s="8"/>
-      <c r="F456" s="8"/>
     </row>
     <row r="457">
+      <c r="D457" s="8"/>
       <c r="E457" s="8"/>
-      <c r="F457" s="8"/>
     </row>
     <row r="458">
+      <c r="D458" s="8"/>
       <c r="E458" s="8"/>
-      <c r="F458" s="8"/>
     </row>
     <row r="459">
+      <c r="D459" s="8"/>
       <c r="E459" s="8"/>
-      <c r="F459" s="8"/>
     </row>
     <row r="460">
+      <c r="D460" s="8"/>
       <c r="E460" s="8"/>
-      <c r="F460" s="8"/>
     </row>
     <row r="461">
+      <c r="D461" s="8"/>
       <c r="E461" s="8"/>
-      <c r="F461" s="8"/>
     </row>
     <row r="462">
+      <c r="D462" s="8"/>
       <c r="E462" s="8"/>
-      <c r="F462" s="8"/>
     </row>
     <row r="463">
+      <c r="D463" s="8"/>
       <c r="E463" s="8"/>
-      <c r="F463" s="8"/>
     </row>
     <row r="464">
+      <c r="D464" s="8"/>
       <c r="E464" s="8"/>
-      <c r="F464" s="8"/>
     </row>
     <row r="465">
+      <c r="D465" s="8"/>
       <c r="E465" s="8"/>
-      <c r="F465" s="8"/>
     </row>
     <row r="466">
+      <c r="D466" s="8"/>
       <c r="E466" s="8"/>
-      <c r="F466" s="8"/>
     </row>
     <row r="467">
+      <c r="D467" s="8"/>
       <c r="E467" s="8"/>
-      <c r="F467" s="8"/>
     </row>
     <row r="468">
+      <c r="D468" s="8"/>
       <c r="E468" s="8"/>
-      <c r="F468" s="8"/>
     </row>
     <row r="469">
+      <c r="D469" s="8"/>
       <c r="E469" s="8"/>
-      <c r="F469" s="8"/>
     </row>
     <row r="470">
+      <c r="D470" s="8"/>
       <c r="E470" s="8"/>
-      <c r="F470" s="8"/>
     </row>
     <row r="471">
+      <c r="D471" s="8"/>
       <c r="E471" s="8"/>
-      <c r="F471" s="8"/>
     </row>
     <row r="472">
+      <c r="D472" s="8"/>
       <c r="E472" s="8"/>
-      <c r="F472" s="8"/>
     </row>
     <row r="473">
+      <c r="D473" s="8"/>
       <c r="E473" s="8"/>
-      <c r="F473" s="8"/>
     </row>
     <row r="474">
+      <c r="D474" s="8"/>
       <c r="E474" s="8"/>
-      <c r="F474" s="8"/>
     </row>
     <row r="475">
+      <c r="D475" s="8"/>
       <c r="E475" s="8"/>
-      <c r="F475" s="8"/>
     </row>
     <row r="476">
+      <c r="D476" s="8"/>
       <c r="E476" s="8"/>
-      <c r="F476" s="8"/>
     </row>
     <row r="477">
+      <c r="D477" s="8"/>
       <c r="E477" s="8"/>
-      <c r="F477" s="8"/>
     </row>
     <row r="478">
+      <c r="D478" s="8"/>
       <c r="E478" s="8"/>
-      <c r="F478" s="8"/>
     </row>
     <row r="479">
+      <c r="D479" s="8"/>
       <c r="E479" s="8"/>
-      <c r="F479" s="8"/>
     </row>
     <row r="480">
+      <c r="D480" s="8"/>
       <c r="E480" s="8"/>
-      <c r="F480" s="8"/>
     </row>
     <row r="481">
+      <c r="D481" s="8"/>
       <c r="E481" s="8"/>
-      <c r="F481" s="8"/>
     </row>
     <row r="482">
+      <c r="D482" s="8"/>
       <c r="E482" s="8"/>
-      <c r="F482" s="8"/>
     </row>
     <row r="483">
+      <c r="D483" s="8"/>
       <c r="E483" s="8"/>
-      <c r="F483" s="8"/>
     </row>
     <row r="484">
+      <c r="D484" s="8"/>
       <c r="E484" s="8"/>
-      <c r="F484" s="8"/>
     </row>
     <row r="485">
+      <c r="D485" s="8"/>
       <c r="E485" s="8"/>
-      <c r="F485" s="8"/>
     </row>
     <row r="486">
+      <c r="D486" s="8"/>
       <c r="E486" s="8"/>
-      <c r="F486" s="8"/>
     </row>
     <row r="487">
+      <c r="D487" s="8"/>
       <c r="E487" s="8"/>
-      <c r="F487" s="8"/>
     </row>
     <row r="488">
+      <c r="D488" s="8"/>
       <c r="E488" s="8"/>
-      <c r="F488" s="8"/>
     </row>
     <row r="489">
+      <c r="D489" s="8"/>
       <c r="E489" s="8"/>
-      <c r="F489" s="8"/>
     </row>
     <row r="490">
+      <c r="D490" s="8"/>
       <c r="E490" s="8"/>
-      <c r="F490" s="8"/>
     </row>
     <row r="491">
+      <c r="D491" s="8"/>
       <c r="E491" s="8"/>
-      <c r="F491" s="8"/>
     </row>
     <row r="492">
+      <c r="D492" s="8"/>
       <c r="E492" s="8"/>
-      <c r="F492" s="8"/>
     </row>
     <row r="493">
+      <c r="D493" s="8"/>
       <c r="E493" s="8"/>
-      <c r="F493" s="8"/>
     </row>
     <row r="494">
+      <c r="D494" s="8"/>
       <c r="E494" s="8"/>
-      <c r="F494" s="8"/>
     </row>
     <row r="495">
+      <c r="D495" s="8"/>
       <c r="E495" s="8"/>
-      <c r="F495" s="8"/>
     </row>
     <row r="496">
+      <c r="D496" s="8"/>
       <c r="E496" s="8"/>
-      <c r="F496" s="8"/>
     </row>
     <row r="497">
+      <c r="D497" s="8"/>
       <c r="E497" s="8"/>
-      <c r="F497" s="8"/>
     </row>
     <row r="498">
+      <c r="D498" s="8"/>
       <c r="E498" s="8"/>
-      <c r="F498" s="8"/>
     </row>
     <row r="499">
+      <c r="D499" s="8"/>
       <c r="E499" s="8"/>
-      <c r="F499" s="8"/>
     </row>
     <row r="500">
+      <c r="D500" s="8"/>
       <c r="E500" s="8"/>
-      <c r="F500" s="8"/>
     </row>
     <row r="501">
+      <c r="D501" s="8"/>
       <c r="E501" s="8"/>
-      <c r="F501" s="8"/>
     </row>
     <row r="502">
+      <c r="D502" s="8"/>
       <c r="E502" s="8"/>
-      <c r="F502" s="8"/>
     </row>
     <row r="503">
+      <c r="D503" s="8"/>
       <c r="E503" s="8"/>
-      <c r="F503" s="8"/>
     </row>
     <row r="504">
+      <c r="D504" s="8"/>
       <c r="E504" s="8"/>
-      <c r="F504" s="8"/>
     </row>
     <row r="505">
+      <c r="D505" s="8"/>
       <c r="E505" s="8"/>
-      <c r="F505" s="8"/>
     </row>
     <row r="506">
+      <c r="D506" s="8"/>
       <c r="E506" s="8"/>
-      <c r="F506" s="8"/>
     </row>
     <row r="507">
+      <c r="D507" s="8"/>
       <c r="E507" s="8"/>
-      <c r="F507" s="8"/>
     </row>
     <row r="508">
+      <c r="D508" s="8"/>
       <c r="E508" s="8"/>
-      <c r="F508" s="8"/>
     </row>
     <row r="509">
+      <c r="D509" s="8"/>
       <c r="E509" s="8"/>
-      <c r="F509" s="8"/>
     </row>
     <row r="510">
+      <c r="D510" s="8"/>
       <c r="E510" s="8"/>
-      <c r="F510" s="8"/>
     </row>
     <row r="511">
+      <c r="D511" s="8"/>
       <c r="E511" s="8"/>
-      <c r="F511" s="8"/>
     </row>
     <row r="512">
+      <c r="D512" s="8"/>
       <c r="E512" s="8"/>
-      <c r="F512" s="8"/>
     </row>
     <row r="513">
+      <c r="D513" s="8"/>
       <c r="E513" s="8"/>
-      <c r="F513" s="8"/>
     </row>
     <row r="514">
+      <c r="D514" s="8"/>
       <c r="E514" s="8"/>
-      <c r="F514" s="8"/>
     </row>
     <row r="515">
+      <c r="D515" s="8"/>
       <c r="E515" s="8"/>
-      <c r="F515" s="8"/>
     </row>
     <row r="516">
+      <c r="D516" s="8"/>
       <c r="E516" s="8"/>
-      <c r="F516" s="8"/>
     </row>
     <row r="517">
+      <c r="D517" s="8"/>
       <c r="E517" s="8"/>
-      <c r="F517" s="8"/>
     </row>
     <row r="518">
+      <c r="D518" s="8"/>
       <c r="E518" s="8"/>
-      <c r="F518" s="8"/>
     </row>
     <row r="519">
+      <c r="D519" s="8"/>
       <c r="E519" s="8"/>
-      <c r="F519" s="8"/>
     </row>
     <row r="520">
+      <c r="D520" s="8"/>
       <c r="E520" s="8"/>
-      <c r="F520" s="8"/>
     </row>
     <row r="521">
+      <c r="D521" s="8"/>
       <c r="E521" s="8"/>
-      <c r="F521" s="8"/>
     </row>
     <row r="522">
+      <c r="D522" s="8"/>
       <c r="E522" s="8"/>
-      <c r="F522" s="8"/>
     </row>
     <row r="523">
+      <c r="D523" s="8"/>
       <c r="E523" s="8"/>
-      <c r="F523" s="8"/>
     </row>
     <row r="524">
+      <c r="D524" s="8"/>
       <c r="E524" s="8"/>
-      <c r="F524" s="8"/>
     </row>
     <row r="525">
+      <c r="D525" s="8"/>
       <c r="E525" s="8"/>
-      <c r="F525" s="8"/>
     </row>
     <row r="526">
+      <c r="D526" s="8"/>
       <c r="E526" s="8"/>
-      <c r="F526" s="8"/>
     </row>
     <row r="527">
+      <c r="D527" s="8"/>
       <c r="E527" s="8"/>
-      <c r="F527" s="8"/>
     </row>
     <row r="528">
+      <c r="D528" s="8"/>
       <c r="E528" s="8"/>
-      <c r="F528" s="8"/>
     </row>
     <row r="529">
+      <c r="D529" s="8"/>
       <c r="E529" s="8"/>
-      <c r="F529" s="8"/>
     </row>
     <row r="530">
+      <c r="D530" s="8"/>
       <c r="E530" s="8"/>
-      <c r="F530" s="8"/>
     </row>
     <row r="531">
+      <c r="D531" s="8"/>
       <c r="E531" s="8"/>
-      <c r="F531" s="8"/>
     </row>
     <row r="532">
+      <c r="D532" s="8"/>
       <c r="E532" s="8"/>
-      <c r="F532" s="8"/>
     </row>
     <row r="533">
+      <c r="D533" s="8"/>
       <c r="E533" s="8"/>
-      <c r="F533" s="8"/>
     </row>
     <row r="534">
+      <c r="D534" s="8"/>
       <c r="E534" s="8"/>
-      <c r="F534" s="8"/>
     </row>
     <row r="535">
+      <c r="D535" s="8"/>
       <c r="E535" s="8"/>
-      <c r="F535" s="8"/>
     </row>
     <row r="536">
+      <c r="D536" s="8"/>
       <c r="E536" s="8"/>
-      <c r="F536" s="8"/>
     </row>
     <row r="537">
+      <c r="D537" s="8"/>
       <c r="E537" s="8"/>
-      <c r="F537" s="8"/>
     </row>
     <row r="538">
+      <c r="D538" s="8"/>
       <c r="E538" s="8"/>
-      <c r="F538" s="8"/>
     </row>
     <row r="539">
+      <c r="D539" s="8"/>
       <c r="E539" s="8"/>
-      <c r="F539" s="8"/>
     </row>
     <row r="540">
+      <c r="D540" s="8"/>
       <c r="E540" s="8"/>
-      <c r="F540" s="8"/>
     </row>
     <row r="541">
+      <c r="D541" s="8"/>
       <c r="E541" s="8"/>
-      <c r="F541" s="8"/>
     </row>
     <row r="542">
+      <c r="D542" s="8"/>
       <c r="E542" s="8"/>
-      <c r="F542" s="8"/>
     </row>
     <row r="543">
+      <c r="D543" s="8"/>
       <c r="E543" s="8"/>
-      <c r="F543" s="8"/>
     </row>
     <row r="544">
+      <c r="D544" s="8"/>
       <c r="E544" s="8"/>
-      <c r="F544" s="8"/>
     </row>
     <row r="545">
+      <c r="D545" s="8"/>
       <c r="E545" s="8"/>
-      <c r="F545" s="8"/>
     </row>
     <row r="546">
+      <c r="D546" s="8"/>
       <c r="E546" s="8"/>
-      <c r="F546" s="8"/>
     </row>
     <row r="547">
+      <c r="D547" s="8"/>
       <c r="E547" s="8"/>
-      <c r="F547" s="8"/>
     </row>
     <row r="548">
+      <c r="D548" s="8"/>
       <c r="E548" s="8"/>
-      <c r="F548" s="8"/>
     </row>
     <row r="549">
+      <c r="D549" s="8"/>
       <c r="E549" s="8"/>
-      <c r="F549" s="8"/>
     </row>
     <row r="550">
+      <c r="D550" s="8"/>
       <c r="E550" s="8"/>
-      <c r="F550" s="8"/>
     </row>
     <row r="551">
+      <c r="D551" s="8"/>
       <c r="E551" s="8"/>
-      <c r="F551" s="8"/>
     </row>
     <row r="552">
+      <c r="D552" s="8"/>
       <c r="E552" s="8"/>
-      <c r="F552" s="8"/>
     </row>
     <row r="553">
+      <c r="D553" s="8"/>
       <c r="E553" s="8"/>
-      <c r="F553" s="8"/>
     </row>
     <row r="554">
+      <c r="D554" s="8"/>
       <c r="E554" s="8"/>
-      <c r="F554" s="8"/>
     </row>
     <row r="555">
+      <c r="D555" s="8"/>
       <c r="E555" s="8"/>
-      <c r="F555" s="8"/>
     </row>
     <row r="556">
+      <c r="D556" s="8"/>
       <c r="E556" s="8"/>
-      <c r="F556" s="8"/>
     </row>
     <row r="557">
+      <c r="D557" s="8"/>
       <c r="E557" s="8"/>
-      <c r="F557" s="8"/>
     </row>
     <row r="558">
+      <c r="D558" s="8"/>
       <c r="E558" s="8"/>
-      <c r="F558" s="8"/>
     </row>
     <row r="559">
+      <c r="D559" s="8"/>
       <c r="E559" s="8"/>
-      <c r="F559" s="8"/>
     </row>
     <row r="560">
+      <c r="D560" s="8"/>
       <c r="E560" s="8"/>
-      <c r="F560" s="8"/>
     </row>
     <row r="561">
+      <c r="D561" s="8"/>
       <c r="E561" s="8"/>
-      <c r="F561" s="8"/>
     </row>
     <row r="562">
+      <c r="D562" s="8"/>
       <c r="E562" s="8"/>
-      <c r="F562" s="8"/>
     </row>
     <row r="563">
+      <c r="D563" s="8"/>
       <c r="E563" s="8"/>
-      <c r="F563" s="8"/>
     </row>
     <row r="564">
+      <c r="D564" s="8"/>
       <c r="E564" s="8"/>
-      <c r="F564" s="8"/>
     </row>
     <row r="565">
+      <c r="D565" s="8"/>
       <c r="E565" s="8"/>
-      <c r="F565" s="8"/>
     </row>
     <row r="566">
+      <c r="D566" s="8"/>
       <c r="E566" s="8"/>
-      <c r="F566" s="8"/>
     </row>
     <row r="567">
+      <c r="D567" s="8"/>
       <c r="E567" s="8"/>
-      <c r="F567" s="8"/>
     </row>
     <row r="568">
+      <c r="D568" s="8"/>
       <c r="E568" s="8"/>
-      <c r="F568" s="8"/>
     </row>
     <row r="569">
+      <c r="D569" s="8"/>
       <c r="E569" s="8"/>
-      <c r="F569" s="8"/>
     </row>
     <row r="570">
+      <c r="D570" s="8"/>
       <c r="E570" s="8"/>
-      <c r="F570" s="8"/>
     </row>
     <row r="571">
+      <c r="D571" s="8"/>
       <c r="E571" s="8"/>
-      <c r="F571" s="8"/>
     </row>
     <row r="572">
+      <c r="D572" s="8"/>
       <c r="E572" s="8"/>
-      <c r="F572" s="8"/>
     </row>
     <row r="573">
+      <c r="D573" s="8"/>
       <c r="E573" s="8"/>
-      <c r="F573" s="8"/>
     </row>
     <row r="574">
+      <c r="D574" s="8"/>
       <c r="E574" s="8"/>
-      <c r="F574" s="8"/>
     </row>
     <row r="575">
+      <c r="D575" s="8"/>
       <c r="E575" s="8"/>
-      <c r="F575" s="8"/>
     </row>
     <row r="576">
+      <c r="D576" s="8"/>
       <c r="E576" s="8"/>
-      <c r="F576" s="8"/>
     </row>
     <row r="577">
+      <c r="D577" s="8"/>
       <c r="E577" s="8"/>
-      <c r="F577" s="8"/>
     </row>
     <row r="578">
+      <c r="D578" s="8"/>
       <c r="E578" s="8"/>
-      <c r="F578" s="8"/>
     </row>
     <row r="579">
+      <c r="D579" s="8"/>
       <c r="E579" s="8"/>
-      <c r="F579" s="8"/>
     </row>
     <row r="580">
+      <c r="D580" s="8"/>
       <c r="E580" s="8"/>
-      <c r="F580" s="8"/>
     </row>
     <row r="581">
+      <c r="D581" s="8"/>
       <c r="E581" s="8"/>
-      <c r="F581" s="8"/>
     </row>
     <row r="582">
+      <c r="D582" s="8"/>
       <c r="E582" s="8"/>
-      <c r="F582" s="8"/>
     </row>
     <row r="583">
+      <c r="D583" s="8"/>
       <c r="E583" s="8"/>
-      <c r="F583" s="8"/>
     </row>
     <row r="584">
+      <c r="D584" s="8"/>
       <c r="E584" s="8"/>
-      <c r="F584" s="8"/>
     </row>
     <row r="585">
+      <c r="D585" s="8"/>
       <c r="E585" s="8"/>
-      <c r="F585" s="8"/>
     </row>
     <row r="586">
+      <c r="D586" s="8"/>
       <c r="E586" s="8"/>
-      <c r="F586" s="8"/>
     </row>
     <row r="587">
+      <c r="D587" s="8"/>
       <c r="E587" s="8"/>
-      <c r="F587" s="8"/>
     </row>
     <row r="588">
+      <c r="D588" s="8"/>
       <c r="E588" s="8"/>
-      <c r="F588" s="8"/>
     </row>
     <row r="589">
+      <c r="D589" s="8"/>
       <c r="E589" s="8"/>
-      <c r="F589" s="8"/>
     </row>
     <row r="590">
+      <c r="D590" s="8"/>
       <c r="E590" s="8"/>
-      <c r="F590" s="8"/>
     </row>
     <row r="591">
+      <c r="D591" s="8"/>
       <c r="E591" s="8"/>
-      <c r="F591" s="8"/>
     </row>
     <row r="592">
+      <c r="D592" s="8"/>
       <c r="E592" s="8"/>
-      <c r="F592" s="8"/>
     </row>
     <row r="593">
+      <c r="D593" s="8"/>
       <c r="E593" s="8"/>
-      <c r="F593" s="8"/>
     </row>
     <row r="594">
+      <c r="D594" s="8"/>
       <c r="E594" s="8"/>
-      <c r="F594" s="8"/>
     </row>
     <row r="595">
+      <c r="D595" s="8"/>
       <c r="E595" s="8"/>
-      <c r="F595" s="8"/>
     </row>
     <row r="596">
+      <c r="D596" s="8"/>
       <c r="E596" s="8"/>
-      <c r="F596" s="8"/>
     </row>
     <row r="597">
+      <c r="D597" s="8"/>
       <c r="E597" s="8"/>
-      <c r="F597" s="8"/>
     </row>
     <row r="598">
+      <c r="D598" s="8"/>
       <c r="E598" s="8"/>
-      <c r="F598" s="8"/>
     </row>
     <row r="599">
+      <c r="D599" s="8"/>
       <c r="E599" s="8"/>
-      <c r="F599" s="8"/>
     </row>
     <row r="600">
+      <c r="D600" s="8"/>
       <c r="E600" s="8"/>
-      <c r="F600" s="8"/>
     </row>
     <row r="601">
+      <c r="D601" s="8"/>
       <c r="E601" s="8"/>
-      <c r="F601" s="8"/>
     </row>
     <row r="602">
+      <c r="D602" s="8"/>
       <c r="E602" s="8"/>
-      <c r="F602" s="8"/>
     </row>
     <row r="603">
+      <c r="D603" s="8"/>
       <c r="E603" s="8"/>
-      <c r="F603" s="8"/>
     </row>
     <row r="604">
+      <c r="D604" s="8"/>
       <c r="E604" s="8"/>
-      <c r="F604" s="8"/>
     </row>
     <row r="605">
+      <c r="D605" s="8"/>
       <c r="E605" s="8"/>
-      <c r="F605" s="8"/>
     </row>
     <row r="606">
+      <c r="D606" s="8"/>
       <c r="E606" s="8"/>
-      <c r="F606" s="8"/>
     </row>
     <row r="607">
+      <c r="D607" s="8"/>
       <c r="E607" s="8"/>
-      <c r="F607" s="8"/>
     </row>
     <row r="608">
+      <c r="D608" s="8"/>
       <c r="E608" s="8"/>
-      <c r="F608" s="8"/>
     </row>
     <row r="609">
+      <c r="D609" s="8"/>
       <c r="E609" s="8"/>
-      <c r="F609" s="8"/>
     </row>
     <row r="610">
+      <c r="D610" s="8"/>
       <c r="E610" s="8"/>
-      <c r="F610" s="8"/>
     </row>
     <row r="611">
+      <c r="D611" s="8"/>
       <c r="E611" s="8"/>
-      <c r="F611" s="8"/>
     </row>
     <row r="612">
+      <c r="D612" s="8"/>
       <c r="E612" s="8"/>
-      <c r="F612" s="8"/>
     </row>
     <row r="613">
+      <c r="D613" s="8"/>
       <c r="E613" s="8"/>
-      <c r="F613" s="8"/>
     </row>
     <row r="614">
+      <c r="D614" s="8"/>
       <c r="E614" s="8"/>
-      <c r="F614" s="8"/>
     </row>
     <row r="615">
+      <c r="D615" s="8"/>
       <c r="E615" s="8"/>
-      <c r="F615" s="8"/>
     </row>
     <row r="616">
+      <c r="D616" s="8"/>
       <c r="E616" s="8"/>
-      <c r="F616" s="8"/>
     </row>
     <row r="617">
+      <c r="D617" s="8"/>
       <c r="E617" s="8"/>
-      <c r="F617" s="8"/>
     </row>
     <row r="618">
+      <c r="D618" s="8"/>
       <c r="E618" s="8"/>
-      <c r="F618" s="8"/>
     </row>
     <row r="619">
+      <c r="D619" s="8"/>
       <c r="E619" s="8"/>
-      <c r="F619" s="8"/>
     </row>
     <row r="620">
+      <c r="D620" s="8"/>
       <c r="E620" s="8"/>
-      <c r="F620" s="8"/>
     </row>
     <row r="621">
+      <c r="D621" s="8"/>
       <c r="E621" s="8"/>
-      <c r="F621" s="8"/>
     </row>
     <row r="622">
+      <c r="D622" s="8"/>
       <c r="E622" s="8"/>
-      <c r="F622" s="8"/>
     </row>
     <row r="623">
+      <c r="D623" s="8"/>
       <c r="E623" s="8"/>
-      <c r="F623" s="8"/>
     </row>
     <row r="624">
+      <c r="D624" s="8"/>
       <c r="E624" s="8"/>
-      <c r="F624" s="8"/>
     </row>
     <row r="625">
+      <c r="D625" s="8"/>
       <c r="E625" s="8"/>
-      <c r="F625" s="8"/>
     </row>
     <row r="626">
+      <c r="D626" s="8"/>
       <c r="E626" s="8"/>
-      <c r="F626" s="8"/>
     </row>
     <row r="627">
+      <c r="D627" s="8"/>
       <c r="E627" s="8"/>
-      <c r="F627" s="8"/>
     </row>
     <row r="628">
+      <c r="D628" s="8"/>
       <c r="E628" s="8"/>
-      <c r="F628" s="8"/>
     </row>
     <row r="629">
+      <c r="D629" s="8"/>
       <c r="E629" s="8"/>
-      <c r="F629" s="8"/>
     </row>
     <row r="630">
+      <c r="D630" s="8"/>
       <c r="E630" s="8"/>
-      <c r="F630" s="8"/>
     </row>
     <row r="631">
+      <c r="D631" s="8"/>
       <c r="E631" s="8"/>
-      <c r="F631" s="8"/>
     </row>
     <row r="632">
+      <c r="D632" s="8"/>
       <c r="E632" s="8"/>
-      <c r="F632" s="8"/>
     </row>
     <row r="633">
+      <c r="D633" s="8"/>
       <c r="E633" s="8"/>
-      <c r="F633" s="8"/>
     </row>
     <row r="634">
+      <c r="D634" s="8"/>
       <c r="E634" s="8"/>
-      <c r="F634" s="8"/>
     </row>
     <row r="635">
+      <c r="D635" s="8"/>
       <c r="E635" s="8"/>
-      <c r="F635" s="8"/>
     </row>
     <row r="636">
+      <c r="D636" s="8"/>
       <c r="E636" s="8"/>
-      <c r="F636" s="8"/>
     </row>
     <row r="637">
+      <c r="D637" s="8"/>
       <c r="E637" s="8"/>
-      <c r="F637" s="8"/>
     </row>
     <row r="638">
+      <c r="D638" s="8"/>
       <c r="E638" s="8"/>
-      <c r="F638" s="8"/>
     </row>
     <row r="639">
+      <c r="D639" s="8"/>
       <c r="E639" s="8"/>
-      <c r="F639" s="8"/>
     </row>
     <row r="640">
+      <c r="D640" s="8"/>
       <c r="E640" s="8"/>
-      <c r="F640" s="8"/>
     </row>
     <row r="641">
+      <c r="D641" s="8"/>
       <c r="E641" s="8"/>
-      <c r="F641" s="8"/>
     </row>
     <row r="642">
+      <c r="D642" s="8"/>
       <c r="E642" s="8"/>
-      <c r="F642" s="8"/>
     </row>
     <row r="643">
+      <c r="D643" s="8"/>
       <c r="E643" s="8"/>
-      <c r="F643" s="8"/>
     </row>
     <row r="644">
+      <c r="D644" s="8"/>
       <c r="E644" s="8"/>
-      <c r="F644" s="8"/>
     </row>
     <row r="645">
+      <c r="D645" s="8"/>
       <c r="E645" s="8"/>
-      <c r="F645" s="8"/>
     </row>
     <row r="646">
+      <c r="D646" s="8"/>
       <c r="E646" s="8"/>
-      <c r="F646" s="8"/>
     </row>
     <row r="647">
+      <c r="D647" s="8"/>
       <c r="E647" s="8"/>
-      <c r="F647" s="8"/>
     </row>
     <row r="648">
+      <c r="D648" s="8"/>
       <c r="E648" s="8"/>
-      <c r="F648" s="8"/>
     </row>
     <row r="649">
+      <c r="D649" s="8"/>
       <c r="E649" s="8"/>
-      <c r="F649" s="8"/>
     </row>
     <row r="650">
+      <c r="D650" s="8"/>
       <c r="E650" s="8"/>
-      <c r="F650" s="8"/>
     </row>
     <row r="651">
+      <c r="D651" s="8"/>
       <c r="E651" s="8"/>
-      <c r="F651" s="8"/>
     </row>
     <row r="652">
+      <c r="D652" s="8"/>
       <c r="E652" s="8"/>
-      <c r="F652" s="8"/>
     </row>
     <row r="653">
+      <c r="D653" s="8"/>
       <c r="E653" s="8"/>
-      <c r="F653" s="8"/>
     </row>
     <row r="654">
+      <c r="D654" s="8"/>
       <c r="E654" s="8"/>
-      <c r="F654" s="8"/>
     </row>
     <row r="655">
+      <c r="D655" s="8"/>
       <c r="E655" s="8"/>
-      <c r="F655" s="8"/>
     </row>
     <row r="656">
+      <c r="D656" s="8"/>
       <c r="E656" s="8"/>
-      <c r="F656" s="8"/>
     </row>
     <row r="657">
+      <c r="D657" s="8"/>
       <c r="E657" s="8"/>
-      <c r="F657" s="8"/>
     </row>
     <row r="658">
+      <c r="D658" s="8"/>
       <c r="E658" s="8"/>
-      <c r="F658" s="8"/>
     </row>
     <row r="659">
+      <c r="D659" s="8"/>
       <c r="E659" s="8"/>
-      <c r="F659" s="8"/>
     </row>
     <row r="660">
+      <c r="D660" s="8"/>
       <c r="E660" s="8"/>
-      <c r="F660" s="8"/>
     </row>
     <row r="661">
+      <c r="D661" s="8"/>
       <c r="E661" s="8"/>
-      <c r="F661" s="8"/>
     </row>
     <row r="662">
+      <c r="D662" s="8"/>
       <c r="E662" s="8"/>
-      <c r="F662" s="8"/>
     </row>
     <row r="663">
+      <c r="D663" s="8"/>
       <c r="E663" s="8"/>
-      <c r="F663" s="8"/>
     </row>
     <row r="664">
+      <c r="D664" s="8"/>
       <c r="E664" s="8"/>
-      <c r="F664" s="8"/>
     </row>
     <row r="665">
+      <c r="D665" s="8"/>
       <c r="E665" s="8"/>
-      <c r="F665" s="8"/>
     </row>
     <row r="666">
+      <c r="D666" s="8"/>
       <c r="E666" s="8"/>
-      <c r="F666" s="8"/>
     </row>
     <row r="667">
+      <c r="D667" s="8"/>
       <c r="E667" s="8"/>
-      <c r="F667" s="8"/>
     </row>
     <row r="668">
+      <c r="D668" s="8"/>
       <c r="E668" s="8"/>
-      <c r="F668" s="8"/>
     </row>
     <row r="669">
+      <c r="D669" s="8"/>
       <c r="E669" s="8"/>
-      <c r="F669" s="8"/>
     </row>
     <row r="670">
+      <c r="D670" s="8"/>
       <c r="E670" s="8"/>
-      <c r="F670" s="8"/>
     </row>
     <row r="671">
+      <c r="D671" s="8"/>
       <c r="E671" s="8"/>
-      <c r="F671" s="8"/>
     </row>
     <row r="672">
+      <c r="D672" s="8"/>
       <c r="E672" s="8"/>
-      <c r="F672" s="8"/>
     </row>
     <row r="673">
+      <c r="D673" s="8"/>
       <c r="E673" s="8"/>
-      <c r="F673" s="8"/>
     </row>
     <row r="674">
+      <c r="D674" s="8"/>
       <c r="E674" s="8"/>
-      <c r="F674" s="8"/>
     </row>
     <row r="675">
+      <c r="D675" s="8"/>
       <c r="E675" s="8"/>
-      <c r="F675" s="8"/>
     </row>
     <row r="676">
+      <c r="D676" s="8"/>
       <c r="E676" s="8"/>
-      <c r="F676" s="8"/>
     </row>
     <row r="677">
+      <c r="D677" s="8"/>
       <c r="E677" s="8"/>
-      <c r="F677" s="8"/>
     </row>
     <row r="678">
+      <c r="D678" s="8"/>
       <c r="E678" s="8"/>
-      <c r="F678" s="8"/>
     </row>
     <row r="679">
+      <c r="D679" s="8"/>
       <c r="E679" s="8"/>
-      <c r="F679" s="8"/>
     </row>
     <row r="680">
+      <c r="D680" s="8"/>
       <c r="E680" s="8"/>
-      <c r="F680" s="8"/>
     </row>
     <row r="681">
+      <c r="D681" s="8"/>
       <c r="E681" s="8"/>
-      <c r="F681" s="8"/>
     </row>
     <row r="682">
+      <c r="D682" s="8"/>
       <c r="E682" s="8"/>
-      <c r="F682" s="8"/>
     </row>
     <row r="683">
+      <c r="D683" s="8"/>
       <c r="E683" s="8"/>
-      <c r="F683" s="8"/>
     </row>
     <row r="684">
+      <c r="D684" s="8"/>
       <c r="E684" s="8"/>
-      <c r="F684" s="8"/>
     </row>
     <row r="685">
+      <c r="D685" s="8"/>
       <c r="E685" s="8"/>
-      <c r="F685" s="8"/>
     </row>
     <row r="686">
+      <c r="D686" s="8"/>
       <c r="E686" s="8"/>
-      <c r="F686" s="8"/>
     </row>
     <row r="687">
+      <c r="D687" s="8"/>
       <c r="E687" s="8"/>
-      <c r="F687" s="8"/>
     </row>
     <row r="688">
+      <c r="D688" s="8"/>
       <c r="E688" s="8"/>
-      <c r="F688" s="8"/>
     </row>
     <row r="689">
+      <c r="D689" s="8"/>
       <c r="E689" s="8"/>
-      <c r="F689" s="8"/>
     </row>
     <row r="690">
+      <c r="D690" s="8"/>
       <c r="E690" s="8"/>
-      <c r="F690" s="8"/>
     </row>
     <row r="691">
+      <c r="D691" s="8"/>
       <c r="E691" s="8"/>
-      <c r="F691" s="8"/>
     </row>
     <row r="692">
+      <c r="D692" s="8"/>
       <c r="E692" s="8"/>
-      <c r="F692" s="8"/>
     </row>
     <row r="693">
+      <c r="D693" s="8"/>
       <c r="E693" s="8"/>
-      <c r="F693" s="8"/>
     </row>
     <row r="694">
+      <c r="D694" s="8"/>
       <c r="E694" s="8"/>
-      <c r="F694" s="8"/>
     </row>
     <row r="695">
+      <c r="D695" s="8"/>
       <c r="E695" s="8"/>
-      <c r="F695" s="8"/>
     </row>
     <row r="696">
+      <c r="D696" s="8"/>
       <c r="E696" s="8"/>
-      <c r="F696" s="8"/>
     </row>
     <row r="697">
+      <c r="D697" s="8"/>
       <c r="E697" s="8"/>
-      <c r="F697" s="8"/>
     </row>
     <row r="698">
+      <c r="D698" s="8"/>
       <c r="E698" s="8"/>
-      <c r="F698" s="8"/>
     </row>
     <row r="699">
+      <c r="D699" s="8"/>
       <c r="E699" s="8"/>
-      <c r="F699" s="8"/>
     </row>
     <row r="700">
+      <c r="D700" s="8"/>
       <c r="E700" s="8"/>
-      <c r="F700" s="8"/>
     </row>
     <row r="701">
+      <c r="D701" s="8"/>
       <c r="E701" s="8"/>
-      <c r="F701" s="8"/>
     </row>
     <row r="702">
+      <c r="D702" s="8"/>
       <c r="E702" s="8"/>
-      <c r="F702" s="8"/>
     </row>
     <row r="703">
+      <c r="D703" s="8"/>
       <c r="E703" s="8"/>
-      <c r="F703" s="8"/>
     </row>
     <row r="704">
+      <c r="D704" s="8"/>
       <c r="E704" s="8"/>
-      <c r="F704" s="8"/>
     </row>
     <row r="705">
+      <c r="D705" s="8"/>
       <c r="E705" s="8"/>
-      <c r="F705" s="8"/>
     </row>
     <row r="706">
+      <c r="D706" s="8"/>
       <c r="E706" s="8"/>
-      <c r="F706" s="8"/>
     </row>
     <row r="707">
+      <c r="D707" s="8"/>
       <c r="E707" s="8"/>
-      <c r="F707" s="8"/>
     </row>
     <row r="708">
+      <c r="D708" s="8"/>
       <c r="E708" s="8"/>
-      <c r="F708" s="8"/>
     </row>
     <row r="709">
+      <c r="D709" s="8"/>
       <c r="E709" s="8"/>
-      <c r="F709" s="8"/>
     </row>
     <row r="710">
+      <c r="D710" s="8"/>
       <c r="E710" s="8"/>
-      <c r="F710" s="8"/>
     </row>
     <row r="711">
+      <c r="D711" s="8"/>
       <c r="E711" s="8"/>
-      <c r="F711" s="8"/>
     </row>
     <row r="712">
+      <c r="D712" s="8"/>
       <c r="E712" s="8"/>
-      <c r="F712" s="8"/>
     </row>
     <row r="713">
+      <c r="D713" s="8"/>
       <c r="E713" s="8"/>
-      <c r="F713" s="8"/>
     </row>
     <row r="714">
+      <c r="D714" s="8"/>
       <c r="E714" s="8"/>
-      <c r="F714" s="8"/>
     </row>
     <row r="715">
+      <c r="D715" s="8"/>
       <c r="E715" s="8"/>
-      <c r="F715" s="8"/>
     </row>
     <row r="716">
+      <c r="D716" s="8"/>
       <c r="E716" s="8"/>
-      <c r="F716" s="8"/>
     </row>
     <row r="717">
+      <c r="D717" s="8"/>
       <c r="E717" s="8"/>
-      <c r="F717" s="8"/>
     </row>
     <row r="718">
+      <c r="D718" s="8"/>
       <c r="E718" s="8"/>
-      <c r="F718" s="8"/>
     </row>
     <row r="719">
+      <c r="D719" s="8"/>
       <c r="E719" s="8"/>
-      <c r="F719" s="8"/>
     </row>
     <row r="720">
+      <c r="D720" s="8"/>
       <c r="E720" s="8"/>
-      <c r="F720" s="8"/>
     </row>
     <row r="721">
+      <c r="D721" s="8"/>
       <c r="E721" s="8"/>
-      <c r="F721" s="8"/>
     </row>
     <row r="722">
+      <c r="D722" s="8"/>
       <c r="E722" s="8"/>
-      <c r="F722" s="8"/>
     </row>
     <row r="723">
+      <c r="D723" s="8"/>
       <c r="E723" s="8"/>
-      <c r="F723" s="8"/>
     </row>
     <row r="724">
+      <c r="D724" s="8"/>
       <c r="E724" s="8"/>
-      <c r="F724" s="8"/>
     </row>
     <row r="725">
+      <c r="D725" s="8"/>
       <c r="E725" s="8"/>
-      <c r="F725" s="8"/>
     </row>
     <row r="726">
+      <c r="D726" s="8"/>
       <c r="E726" s="8"/>
-      <c r="F726" s="8"/>
     </row>
     <row r="727">
+      <c r="D727" s="8"/>
       <c r="E727" s="8"/>
-      <c r="F727" s="8"/>
     </row>
     <row r="728">
+      <c r="D728" s="8"/>
       <c r="E728" s="8"/>
-      <c r="F728" s="8"/>
     </row>
     <row r="729">
+      <c r="D729" s="8"/>
       <c r="E729" s="8"/>
-      <c r="F729" s="8"/>
     </row>
     <row r="730">
+      <c r="D730" s="8"/>
       <c r="E730" s="8"/>
-      <c r="F730" s="8"/>
     </row>
     <row r="731">
+      <c r="D731" s="8"/>
       <c r="E731" s="8"/>
-      <c r="F731" s="8"/>
     </row>
     <row r="732">
+      <c r="D732" s="8"/>
       <c r="E732" s="8"/>
-      <c r="F732" s="8"/>
     </row>
     <row r="733">
+      <c r="D733" s="8"/>
       <c r="E733" s="8"/>
-      <c r="F733" s="8"/>
     </row>
     <row r="734">
+      <c r="D734" s="8"/>
       <c r="E734" s="8"/>
-      <c r="F734" s="8"/>
     </row>
     <row r="735">
+      <c r="D735" s="8"/>
       <c r="E735" s="8"/>
-      <c r="F735" s="8"/>
     </row>
     <row r="736">
+      <c r="D736" s="8"/>
       <c r="E736" s="8"/>
-      <c r="F736" s="8"/>
     </row>
     <row r="737">
+      <c r="D737" s="8"/>
       <c r="E737" s="8"/>
-      <c r="F737" s="8"/>
     </row>
     <row r="738">
+      <c r="D738" s="8"/>
       <c r="E738" s="8"/>
-      <c r="F738" s="8"/>
     </row>
     <row r="739">
+      <c r="D739" s="8"/>
       <c r="E739" s="8"/>
-      <c r="F739" s="8"/>
     </row>
     <row r="740">
+      <c r="D740" s="8"/>
       <c r="E740" s="8"/>
-      <c r="F740" s="8"/>
     </row>
     <row r="741">
+      <c r="D741" s="8"/>
       <c r="E741" s="8"/>
-      <c r="F741" s="8"/>
     </row>
     <row r="742">
+      <c r="D742" s="8"/>
       <c r="E742" s="8"/>
-      <c r="F742" s="8"/>
     </row>
     <row r="743">
+      <c r="D743" s="8"/>
       <c r="E743" s="8"/>
-      <c r="F743" s="8"/>
     </row>
     <row r="744">
+      <c r="D744" s="8"/>
       <c r="E744" s="8"/>
-      <c r="F744" s="8"/>
     </row>
     <row r="745">
+      <c r="D745" s="8"/>
       <c r="E745" s="8"/>
-      <c r="F745" s="8"/>
     </row>
     <row r="746">
+      <c r="D746" s="8"/>
       <c r="E746" s="8"/>
-      <c r="F746" s="8"/>
     </row>
     <row r="747">
+      <c r="D747" s="8"/>
       <c r="E747" s="8"/>
-      <c r="F747" s="8"/>
     </row>
     <row r="748">
+      <c r="D748" s="8"/>
       <c r="E748" s="8"/>
-      <c r="F748" s="8"/>
     </row>
     <row r="749">
+      <c r="D749" s="8"/>
       <c r="E749" s="8"/>
-      <c r="F749" s="8"/>
     </row>
     <row r="750">
+      <c r="D750" s="8"/>
       <c r="E750" s="8"/>
-      <c r="F750" s="8"/>
     </row>
     <row r="751">
+      <c r="D751" s="8"/>
       <c r="E751" s="8"/>
-      <c r="F751" s="8"/>
     </row>
     <row r="752">
+      <c r="D752" s="8"/>
       <c r="E752" s="8"/>
-      <c r="F752" s="8"/>
     </row>
     <row r="753">
+      <c r="D753" s="8"/>
       <c r="E753" s="8"/>
-      <c r="F753" s="8"/>
     </row>
     <row r="754">
+      <c r="D754" s="8"/>
       <c r="E754" s="8"/>
-      <c r="F754" s="8"/>
     </row>
     <row r="755">
+      <c r="D755" s="8"/>
       <c r="E755" s="8"/>
-      <c r="F755" s="8"/>
     </row>
     <row r="756">
+      <c r="D756" s="8"/>
       <c r="E756" s="8"/>
-      <c r="F756" s="8"/>
     </row>
     <row r="757">
+      <c r="D757" s="8"/>
       <c r="E757" s="8"/>
-      <c r="F757" s="8"/>
     </row>
     <row r="758">
+      <c r="D758" s="8"/>
       <c r="E758" s="8"/>
-      <c r="F758" s="8"/>
     </row>
     <row r="759">
+      <c r="D759" s="8"/>
       <c r="E759" s="8"/>
-      <c r="F759" s="8"/>
     </row>
     <row r="760">
+      <c r="D760" s="8"/>
       <c r="E760" s="8"/>
-      <c r="F760" s="8"/>
     </row>
     <row r="761">
+      <c r="D761" s="8"/>
       <c r="E761" s="8"/>
-      <c r="F761" s="8"/>
     </row>
     <row r="762">
+      <c r="D762" s="8"/>
       <c r="E762" s="8"/>
-      <c r="F762" s="8"/>
     </row>
     <row r="763">
+      <c r="D763" s="8"/>
       <c r="E763" s="8"/>
-      <c r="F763" s="8"/>
     </row>
     <row r="764">
+      <c r="D764" s="8"/>
       <c r="E764" s="8"/>
-      <c r="F764" s="8"/>
     </row>
     <row r="765">
+      <c r="D765" s="8"/>
       <c r="E765" s="8"/>
-      <c r="F765" s="8"/>
     </row>
     <row r="766">
+      <c r="D766" s="8"/>
       <c r="E766" s="8"/>
-      <c r="F766" s="8"/>
     </row>
     <row r="767">
+      <c r="D767" s="8"/>
       <c r="E767" s="8"/>
-      <c r="F767" s="8"/>
     </row>
     <row r="768">
+      <c r="D768" s="8"/>
       <c r="E768" s="8"/>
-      <c r="F768" s="8"/>
     </row>
     <row r="769">
+      <c r="D769" s="8"/>
       <c r="E769" s="8"/>
-      <c r="F769" s="8"/>
     </row>
     <row r="770">
+      <c r="D770" s="8"/>
       <c r="E770" s="8"/>
-      <c r="F770" s="8"/>
     </row>
     <row r="771">
+      <c r="D771" s="8"/>
       <c r="E771" s="8"/>
-      <c r="F771" s="8"/>
     </row>
     <row r="772">
+      <c r="D772" s="8"/>
       <c r="E772" s="8"/>
-      <c r="F772" s="8"/>
     </row>
     <row r="773">
+      <c r="D773" s="8"/>
       <c r="E773" s="8"/>
-      <c r="F773" s="8"/>
     </row>
     <row r="774">
+      <c r="D774" s="8"/>
       <c r="E774" s="8"/>
-      <c r="F774" s="8"/>
     </row>
     <row r="775">
+      <c r="D775" s="8"/>
       <c r="E775" s="8"/>
-      <c r="F775" s="8"/>
     </row>
     <row r="776">
+      <c r="D776" s="8"/>
       <c r="E776" s="8"/>
-      <c r="F776" s="8"/>
     </row>
     <row r="777">
+      <c r="D777" s="8"/>
       <c r="E777" s="8"/>
-      <c r="F777" s="8"/>
     </row>
     <row r="778">
+      <c r="D778" s="8"/>
       <c r="E778" s="8"/>
-      <c r="F778" s="8"/>
     </row>
     <row r="779">
+      <c r="D779" s="8"/>
       <c r="E779" s="8"/>
-      <c r="F779" s="8"/>
     </row>
     <row r="780">
+      <c r="D780" s="8"/>
       <c r="E780" s="8"/>
-      <c r="F780" s="8"/>
     </row>
     <row r="781">
+      <c r="D781" s="8"/>
       <c r="E781" s="8"/>
-      <c r="F781" s="8"/>
     </row>
     <row r="782">
+      <c r="D782" s="8"/>
       <c r="E782" s="8"/>
-      <c r="F782" s="8"/>
     </row>
     <row r="783">
+      <c r="D783" s="8"/>
       <c r="E783" s="8"/>
-      <c r="F783" s="8"/>
     </row>
     <row r="784">
+      <c r="D784" s="8"/>
       <c r="E784" s="8"/>
-      <c r="F784" s="8"/>
     </row>
     <row r="785">
+      <c r="D785" s="8"/>
       <c r="E785" s="8"/>
-      <c r="F785" s="8"/>
     </row>
     <row r="786">
+      <c r="D786" s="8"/>
       <c r="E786" s="8"/>
-      <c r="F786" s="8"/>
     </row>
     <row r="787">
+      <c r="D787" s="8"/>
       <c r="E787" s="8"/>
-      <c r="F787" s="8"/>
     </row>
     <row r="788">
+      <c r="D788" s="8"/>
       <c r="E788" s="8"/>
-      <c r="F788" s="8"/>
     </row>
     <row r="789">
+      <c r="D789" s="8"/>
       <c r="E789" s="8"/>
-      <c r="F789" s="8"/>
     </row>
     <row r="790">
+      <c r="D790" s="8"/>
       <c r="E790" s="8"/>
-      <c r="F790" s="8"/>
     </row>
     <row r="791">
+      <c r="D791" s="8"/>
       <c r="E791" s="8"/>
-      <c r="F791" s="8"/>
     </row>
     <row r="792">
+      <c r="D792" s="8"/>
       <c r="E792" s="8"/>
-      <c r="F792" s="8"/>
     </row>
     <row r="793">
+      <c r="D793" s="8"/>
       <c r="E793" s="8"/>
-      <c r="F793" s="8"/>
     </row>
     <row r="794">
+      <c r="D794" s="8"/>
       <c r="E794" s="8"/>
-      <c r="F794" s="8"/>
     </row>
     <row r="795">
+      <c r="D795" s="8"/>
       <c r="E795" s="8"/>
-      <c r="F795" s="8"/>
     </row>
     <row r="796">
+      <c r="D796" s="8"/>
       <c r="E796" s="8"/>
-      <c r="F796" s="8"/>
     </row>
     <row r="797">
+      <c r="D797" s="8"/>
       <c r="E797" s="8"/>
-      <c r="F797" s="8"/>
     </row>
     <row r="798">
+      <c r="D798" s="8"/>
       <c r="E798" s="8"/>
-      <c r="F798" s="8"/>
     </row>
     <row r="799">
+      <c r="D799" s="8"/>
       <c r="E799" s="8"/>
-      <c r="F799" s="8"/>
     </row>
     <row r="800">
+      <c r="D800" s="8"/>
       <c r="E800" s="8"/>
-      <c r="F800" s="8"/>
     </row>
     <row r="801">
+      <c r="D801" s="8"/>
       <c r="E801" s="8"/>
-      <c r="F801" s="8"/>
     </row>
     <row r="802">
+      <c r="D802" s="8"/>
       <c r="E802" s="8"/>
-      <c r="F802" s="8"/>
     </row>
     <row r="803">
+      <c r="D803" s="8"/>
       <c r="E803" s="8"/>
-      <c r="F803" s="8"/>
     </row>
     <row r="804">
+      <c r="D804" s="8"/>
       <c r="E804" s="8"/>
-      <c r="F804" s="8"/>
     </row>
     <row r="805">
+      <c r="D805" s="8"/>
       <c r="E805" s="8"/>
-      <c r="F805" s="8"/>
     </row>
     <row r="806">
+      <c r="D806" s="8"/>
       <c r="E806" s="8"/>
-      <c r="F806" s="8"/>
     </row>
     <row r="807">
+      <c r="D807" s="8"/>
       <c r="E807" s="8"/>
-      <c r="F807" s="8"/>
     </row>
     <row r="808">
+      <c r="D808" s="8"/>
       <c r="E808" s="8"/>
-      <c r="F808" s="8"/>
     </row>
     <row r="809">
+      <c r="D809" s="8"/>
       <c r="E809" s="8"/>
-      <c r="F809" s="8"/>
     </row>
     <row r="810">
+      <c r="D810" s="8"/>
       <c r="E810" s="8"/>
-      <c r="F810" s="8"/>
     </row>
     <row r="811">
+      <c r="D811" s="8"/>
       <c r="E811" s="8"/>
-      <c r="F811" s="8"/>
     </row>
     <row r="812">
+      <c r="D812" s="8"/>
       <c r="E812" s="8"/>
-      <c r="F812" s="8"/>
     </row>
     <row r="813">
+      <c r="D813" s="8"/>
       <c r="E813" s="8"/>
-      <c r="F813" s="8"/>
     </row>
     <row r="814">
+      <c r="D814" s="8"/>
       <c r="E814" s="8"/>
-      <c r="F814" s="8"/>
     </row>
     <row r="815">
+      <c r="D815" s="8"/>
       <c r="E815" s="8"/>
-      <c r="F815" s="8"/>
     </row>
     <row r="816">
+      <c r="D816" s="8"/>
       <c r="E816" s="8"/>
-      <c r="F816" s="8"/>
     </row>
     <row r="817">
+      <c r="D817" s="8"/>
       <c r="E817" s="8"/>
-      <c r="F817" s="8"/>
     </row>
     <row r="818">
+      <c r="D818" s="8"/>
       <c r="E818" s="8"/>
-      <c r="F818" s="8"/>
     </row>
     <row r="819">
+      <c r="D819" s="8"/>
       <c r="E819" s="8"/>
-      <c r="F819" s="8"/>
     </row>
     <row r="820">
+      <c r="D820" s="8"/>
       <c r="E820" s="8"/>
-      <c r="F820" s="8"/>
     </row>
     <row r="821">
+      <c r="D821" s="8"/>
       <c r="E821" s="8"/>
-      <c r="F821" s="8"/>
     </row>
     <row r="822">
+      <c r="D822" s="8"/>
       <c r="E822" s="8"/>
-      <c r="F822" s="8"/>
     </row>
     <row r="823">
+      <c r="D823" s="8"/>
       <c r="E823" s="8"/>
-      <c r="F823" s="8"/>
     </row>
     <row r="824">
+      <c r="D824" s="8"/>
       <c r="E824" s="8"/>
-      <c r="F824" s="8"/>
     </row>
     <row r="825">
+      <c r="D825" s="8"/>
       <c r="E825" s="8"/>
-      <c r="F825" s="8"/>
     </row>
     <row r="826">
+      <c r="D826" s="8"/>
       <c r="E826" s="8"/>
-      <c r="F826" s="8"/>
     </row>
     <row r="827">
+      <c r="D827" s="8"/>
       <c r="E827" s="8"/>
-      <c r="F827" s="8"/>
     </row>
     <row r="828">
+      <c r="D828" s="8"/>
       <c r="E828" s="8"/>
-      <c r="F828" s="8"/>
     </row>
     <row r="829">
+      <c r="D829" s="8"/>
       <c r="E829" s="8"/>
-      <c r="F829" s="8"/>
     </row>
     <row r="830">
+      <c r="D830" s="8"/>
       <c r="E830" s="8"/>
-      <c r="F830" s="8"/>
     </row>
     <row r="831">
+      <c r="D831" s="8"/>
       <c r="E831" s="8"/>
-      <c r="F831" s="8"/>
     </row>
     <row r="832">
+      <c r="D832" s="8"/>
       <c r="E832" s="8"/>
-      <c r="F832" s="8"/>
     </row>
     <row r="833">
+      <c r="D833" s="8"/>
       <c r="E833" s="8"/>
-      <c r="F833" s="8"/>
     </row>
     <row r="834">
+      <c r="D834" s="8"/>
       <c r="E834" s="8"/>
-      <c r="F834" s="8"/>
     </row>
     <row r="835">
+      <c r="D835" s="8"/>
       <c r="E835" s="8"/>
-      <c r="F835" s="8"/>
     </row>
     <row r="836">
+      <c r="D836" s="8"/>
       <c r="E836" s="8"/>
-      <c r="F836" s="8"/>
     </row>
     <row r="837">
+      <c r="D837" s="8"/>
       <c r="E837" s="8"/>
-      <c r="F837" s="8"/>
     </row>
     <row r="838">
+      <c r="D838" s="8"/>
       <c r="E838" s="8"/>
-      <c r="F838" s="8"/>
     </row>
     <row r="839">
+      <c r="D839" s="8"/>
       <c r="E839" s="8"/>
-      <c r="F839" s="8"/>
     </row>
     <row r="840">
+      <c r="D840" s="8"/>
       <c r="E840" s="8"/>
-      <c r="F840" s="8"/>
     </row>
     <row r="841">
+      <c r="D841" s="8"/>
       <c r="E841" s="8"/>
-      <c r="F841" s="8"/>
     </row>
     <row r="842">
+      <c r="D842" s="8"/>
       <c r="E842" s="8"/>
-      <c r="F842" s="8"/>
     </row>
     <row r="843">
+      <c r="D843" s="8"/>
       <c r="E843" s="8"/>
-      <c r="F843" s="8"/>
     </row>
     <row r="844">
+      <c r="D844" s="8"/>
       <c r="E844" s="8"/>
-      <c r="F844" s="8"/>
     </row>
     <row r="845">
+      <c r="D845" s="8"/>
       <c r="E845" s="8"/>
-      <c r="F845" s="8"/>
     </row>
     <row r="846">
+      <c r="D846" s="8"/>
       <c r="E846" s="8"/>
-      <c r="F846" s="8"/>
     </row>
     <row r="847">
+      <c r="D847" s="8"/>
       <c r="E847" s="8"/>
-      <c r="F847" s="8"/>
     </row>
     <row r="848">
+      <c r="D848" s="8"/>
       <c r="E848" s="8"/>
-      <c r="F848" s="8"/>
     </row>
     <row r="849">
+      <c r="D849" s="8"/>
       <c r="E849" s="8"/>
-      <c r="F849" s="8"/>
     </row>
     <row r="850">
+      <c r="D850" s="8"/>
       <c r="E850" s="8"/>
-      <c r="F850" s="8"/>
     </row>
     <row r="851">
+      <c r="D851" s="8"/>
       <c r="E851" s="8"/>
-      <c r="F851" s="8"/>
     </row>
     <row r="852">
+      <c r="D852" s="8"/>
       <c r="E852" s="8"/>
-      <c r="F852" s="8"/>
     </row>
     <row r="853">
+      <c r="D853" s="8"/>
       <c r="E853" s="8"/>
-      <c r="F853" s="8"/>
     </row>
     <row r="854">
+      <c r="D854" s="8"/>
       <c r="E854" s="8"/>
-      <c r="F854" s="8"/>
     </row>
     <row r="855">
+      <c r="D855" s="8"/>
       <c r="E855" s="8"/>
-      <c r="F855" s="8"/>
     </row>
     <row r="856">
+      <c r="D856" s="8"/>
       <c r="E856" s="8"/>
-      <c r="F856" s="8"/>
     </row>
     <row r="857">
+      <c r="D857" s="8"/>
       <c r="E857" s="8"/>
-      <c r="F857" s="8"/>
     </row>
     <row r="858">
+      <c r="D858" s="8"/>
       <c r="E858" s="8"/>
-      <c r="F858" s="8"/>
     </row>
     <row r="859">
+      <c r="D859" s="8"/>
       <c r="E859" s="8"/>
-      <c r="F859" s="8"/>
     </row>
     <row r="860">
+      <c r="D860" s="8"/>
       <c r="E860" s="8"/>
-      <c r="F860" s="8"/>
     </row>
     <row r="861">
+      <c r="D861" s="8"/>
       <c r="E861" s="8"/>
-      <c r="F861" s="8"/>
     </row>
     <row r="862">
+      <c r="D862" s="8"/>
       <c r="E862" s="8"/>
-      <c r="F862" s="8"/>
     </row>
     <row r="863">
+      <c r="D863" s="8"/>
       <c r="E863" s="8"/>
-      <c r="F863" s="8"/>
     </row>
     <row r="864">
+      <c r="D864" s="8"/>
       <c r="E864" s="8"/>
-      <c r="F864" s="8"/>
     </row>
     <row r="865">
+      <c r="D865" s="8"/>
       <c r="E865" s="8"/>
-      <c r="F865" s="8"/>
     </row>
     <row r="866">
+      <c r="D866" s="8"/>
       <c r="E866" s="8"/>
-      <c r="F866" s="8"/>
     </row>
     <row r="867">
+      <c r="D867" s="8"/>
       <c r="E867" s="8"/>
-      <c r="F867" s="8"/>
     </row>
     <row r="868">
+      <c r="D868" s="8"/>
       <c r="E868" s="8"/>
-      <c r="F868" s="8"/>
     </row>
     <row r="869">
+      <c r="D869" s="8"/>
       <c r="E869" s="8"/>
-      <c r="F869" s="8"/>
     </row>
     <row r="870">
+      <c r="D870" s="8"/>
       <c r="E870" s="8"/>
-      <c r="F870" s="8"/>
     </row>
     <row r="871">
+      <c r="D871" s="8"/>
       <c r="E871" s="8"/>
-      <c r="F871" s="8"/>
     </row>
     <row r="872">
+      <c r="D872" s="8"/>
       <c r="E872" s="8"/>
-      <c r="F872" s="8"/>
     </row>
     <row r="873">
+      <c r="D873" s="8"/>
       <c r="E873" s="8"/>
-      <c r="F873" s="8"/>
     </row>
     <row r="874">
+      <c r="D874" s="8"/>
       <c r="E874" s="8"/>
-      <c r="F874" s="8"/>
     </row>
     <row r="875">
+      <c r="D875" s="8"/>
       <c r="E875" s="8"/>
-      <c r="F875" s="8"/>
     </row>
     <row r="876">
+      <c r="D876" s="8"/>
       <c r="E876" s="8"/>
-      <c r="F876" s="8"/>
     </row>
     <row r="877">
+      <c r="D877" s="8"/>
       <c r="E877" s="8"/>
-      <c r="F877" s="8"/>
     </row>
     <row r="878">
+      <c r="D878" s="8"/>
       <c r="E878" s="8"/>
-      <c r="F878" s="8"/>
     </row>
     <row r="879">
+      <c r="D879" s="8"/>
       <c r="E879" s="8"/>
-      <c r="F879" s="8"/>
     </row>
     <row r="880">
+      <c r="D880" s="8"/>
       <c r="E880" s="8"/>
-      <c r="F880" s="8"/>
     </row>
     <row r="881">
+      <c r="D881" s="8"/>
       <c r="E881" s="8"/>
-      <c r="F881" s="8"/>
     </row>
     <row r="882">
+      <c r="D882" s="8"/>
       <c r="E882" s="8"/>
-      <c r="F882" s="8"/>
     </row>
     <row r="883">
+      <c r="D883" s="8"/>
       <c r="E883" s="8"/>
-      <c r="F883" s="8"/>
     </row>
     <row r="884">
+      <c r="D884" s="8"/>
       <c r="E884" s="8"/>
-      <c r="F884" s="8"/>
     </row>
     <row r="885">
+      <c r="D885" s="8"/>
       <c r="E885" s="8"/>
-      <c r="F885" s="8"/>
     </row>
     <row r="886">
+      <c r="D886" s="8"/>
       <c r="E886" s="8"/>
-      <c r="F886" s="8"/>
     </row>
     <row r="887">
+      <c r="D887" s="8"/>
       <c r="E887" s="8"/>
-      <c r="F887" s="8"/>
     </row>
     <row r="888">
+      <c r="D888" s="8"/>
       <c r="E888" s="8"/>
-      <c r="F888" s="8"/>
     </row>
     <row r="889">
+      <c r="D889" s="8"/>
       <c r="E889" s="8"/>
-      <c r="F889" s="8"/>
     </row>
     <row r="890">
+      <c r="D890" s="8"/>
       <c r="E890" s="8"/>
-      <c r="F890" s="8"/>
     </row>
     <row r="891">
+      <c r="D891" s="8"/>
       <c r="E891" s="8"/>
-      <c r="F891" s="8"/>
     </row>
     <row r="892">
+      <c r="D892" s="8"/>
       <c r="E892" s="8"/>
-      <c r="F892" s="8"/>
     </row>
     <row r="893">
+      <c r="D893" s="8"/>
       <c r="E893" s="8"/>
-      <c r="F893" s="8"/>
     </row>
     <row r="894">
+      <c r="D894" s="8"/>
       <c r="E894" s="8"/>
-      <c r="F894" s="8"/>
     </row>
     <row r="895">
+      <c r="D895" s="8"/>
       <c r="E895" s="8"/>
-      <c r="F895" s="8"/>
     </row>
     <row r="896">
+      <c r="D896" s="8"/>
       <c r="E896" s="8"/>
-      <c r="F896" s="8"/>
     </row>
     <row r="897">
+      <c r="D897" s="8"/>
       <c r="E897" s="8"/>
-      <c r="F897" s="8"/>
     </row>
     <row r="898">
+      <c r="D898" s="8"/>
       <c r="E898" s="8"/>
-      <c r="F898" s="8"/>
     </row>
     <row r="899">
+      <c r="D899" s="8"/>
       <c r="E899" s="8"/>
-      <c r="F899" s="8"/>
     </row>
     <row r="900">
+      <c r="D900" s="8"/>
       <c r="E900" s="8"/>
-      <c r="F900" s="8"/>
     </row>
     <row r="901">
+      <c r="D901" s="8"/>
       <c r="E901" s="8"/>
-      <c r="F901" s="8"/>
     </row>
     <row r="902">
+      <c r="D902" s="8"/>
       <c r="E902" s="8"/>
-      <c r="F902" s="8"/>
     </row>
     <row r="903">
+      <c r="D903" s="8"/>
       <c r="E903" s="8"/>
-      <c r="F903" s="8"/>
     </row>
     <row r="904">
+      <c r="D904" s="8"/>
       <c r="E904" s="8"/>
-      <c r="F904" s="8"/>
     </row>
     <row r="905">
+      <c r="D905" s="8"/>
       <c r="E905" s="8"/>
-      <c r="F905" s="8"/>
     </row>
     <row r="906">
+      <c r="D906" s="8"/>
       <c r="E906" s="8"/>
-      <c r="F906" s="8"/>
     </row>
     <row r="907">
+      <c r="D907" s="8"/>
       <c r="E907" s="8"/>
-      <c r="F907" s="8"/>
     </row>
     <row r="908">
+      <c r="D908" s="8"/>
       <c r="E908" s="8"/>
-      <c r="F908" s="8"/>
     </row>
     <row r="909">
+      <c r="D909" s="8"/>
       <c r="E909" s="8"/>
-      <c r="F909" s="8"/>
     </row>
     <row r="910">
+      <c r="D910" s="8"/>
       <c r="E910" s="8"/>
-      <c r="F910" s="8"/>
     </row>
     <row r="911">
+      <c r="D911" s="8"/>
       <c r="E911" s="8"/>
-      <c r="F911" s="8"/>
     </row>
     <row r="912">
+      <c r="D912" s="8"/>
       <c r="E912" s="8"/>
-      <c r="F912" s="8"/>
     </row>
     <row r="913">
+      <c r="D913" s="8"/>
       <c r="E913" s="8"/>
-      <c r="F913" s="8"/>
     </row>
     <row r="914">
+      <c r="D914" s="8"/>
       <c r="E914" s="8"/>
-      <c r="F914" s="8"/>
     </row>
     <row r="915">
+      <c r="D915" s="8"/>
       <c r="E915" s="8"/>
-      <c r="F915" s="8"/>
     </row>
     <row r="916">
+      <c r="D916" s="8"/>
       <c r="E916" s="8"/>
-      <c r="F916" s="8"/>
     </row>
     <row r="917">
+      <c r="D917" s="8"/>
       <c r="E917" s="8"/>
-      <c r="F917" s="8"/>
     </row>
     <row r="918">
+      <c r="D918" s="8"/>
       <c r="E918" s="8"/>
-      <c r="F918" s="8"/>
     </row>
     <row r="919">
+      <c r="D919" s="8"/>
       <c r="E919" s="8"/>
-      <c r="F919" s="8"/>
     </row>
     <row r="920">
+      <c r="D920" s="8"/>
       <c r="E920" s="8"/>
-      <c r="F920" s="8"/>
     </row>
     <row r="921">
+      <c r="D921" s="8"/>
       <c r="E921" s="8"/>
-      <c r="F921" s="8"/>
     </row>
     <row r="922">
+      <c r="D922" s="8"/>
       <c r="E922" s="8"/>
-      <c r="F922" s="8"/>
     </row>
     <row r="923">
+      <c r="D923" s="8"/>
       <c r="E923" s="8"/>
-      <c r="F923" s="8"/>
     </row>
     <row r="924">
+      <c r="D924" s="8"/>
       <c r="E924" s="8"/>
-      <c r="F924" s="8"/>
     </row>
     <row r="925">
+      <c r="D925" s="8"/>
       <c r="E925" s="8"/>
-      <c r="F925" s="8"/>
     </row>
     <row r="926">
+      <c r="D926" s="8"/>
       <c r="E926" s="8"/>
-      <c r="F926" s="8"/>
     </row>
     <row r="927">
+      <c r="D927" s="8"/>
       <c r="E927" s="8"/>
-      <c r="F927" s="8"/>
     </row>
     <row r="928">
+      <c r="D928" s="8"/>
       <c r="E928" s="8"/>
-      <c r="F928" s="8"/>
     </row>
     <row r="929">
+      <c r="D929" s="8"/>
       <c r="E929" s="8"/>
-      <c r="F929" s="8"/>
     </row>
     <row r="930">
+      <c r="D930" s="8"/>
       <c r="E930" s="8"/>
-      <c r="F930" s="8"/>
     </row>
     <row r="931">
+      <c r="D931" s="8"/>
       <c r="E931" s="8"/>
-      <c r="F931" s="8"/>
     </row>
     <row r="932">
+      <c r="D932" s="8"/>
       <c r="E932" s="8"/>
-      <c r="F932" s="8"/>
     </row>
     <row r="933">
+      <c r="D933" s="8"/>
       <c r="E933" s="8"/>
-      <c r="F933" s="8"/>
     </row>
     <row r="934">
+      <c r="D934" s="8"/>
       <c r="E934" s="8"/>
-      <c r="F934" s="8"/>
     </row>
     <row r="935">
+      <c r="D935" s="8"/>
       <c r="E935" s="8"/>
-      <c r="F935" s="8"/>
     </row>
     <row r="936">
+      <c r="D936" s="8"/>
       <c r="E936" s="8"/>
-      <c r="F936" s="8"/>
     </row>
     <row r="937">
+      <c r="D937" s="8"/>
       <c r="E937" s="8"/>
-      <c r="F937" s="8"/>
     </row>
     <row r="938">
+      <c r="D938" s="8"/>
       <c r="E938" s="8"/>
-      <c r="F938" s="8"/>
     </row>
     <row r="939">
+      <c r="D939" s="8"/>
       <c r="E939" s="8"/>
-      <c r="F939" s="8"/>
     </row>
     <row r="940">
+      <c r="D940" s="8"/>
       <c r="E940" s="8"/>
-      <c r="F940" s="8"/>
     </row>
     <row r="941">
+      <c r="D941" s="8"/>
       <c r="E941" s="8"/>
-      <c r="F941" s="8"/>
     </row>
     <row r="942">
+      <c r="D942" s="8"/>
       <c r="E942" s="8"/>
-      <c r="F942" s="8"/>
     </row>
     <row r="943">
+      <c r="D943" s="8"/>
       <c r="E943" s="8"/>
-      <c r="F943" s="8"/>
     </row>
     <row r="944">
+      <c r="D944" s="8"/>
       <c r="E944" s="8"/>
-      <c r="F944" s="8"/>
     </row>
     <row r="945">
+      <c r="D945" s="8"/>
       <c r="E945" s="8"/>
-      <c r="F945" s="8"/>
     </row>
     <row r="946">
+      <c r="D946" s="8"/>
       <c r="E946" s="8"/>
-      <c r="F946" s="8"/>
     </row>
     <row r="947">
+      <c r="D947" s="8"/>
       <c r="E947" s="8"/>
-      <c r="F947" s="8"/>
     </row>
     <row r="948">
+      <c r="D948" s="8"/>
       <c r="E948" s="8"/>
-      <c r="F948" s="8"/>
     </row>
     <row r="949">
+      <c r="D949" s="8"/>
       <c r="E949" s="8"/>
-      <c r="F949" s="8"/>
     </row>
     <row r="950">
+      <c r="D950" s="8"/>
       <c r="E950" s="8"/>
-      <c r="F950" s="8"/>
     </row>
     <row r="951">
+      <c r="D951" s="8"/>
       <c r="E951" s="8"/>
-      <c r="F951" s="8"/>
     </row>
     <row r="952">
+      <c r="D952" s="8"/>
       <c r="E952" s="8"/>
-      <c r="F952" s="8"/>
     </row>
     <row r="953">
+      <c r="D953" s="8"/>
       <c r="E953" s="8"/>
-      <c r="F953" s="8"/>
     </row>
     <row r="954">
+      <c r="D954" s="8"/>
       <c r="E954" s="8"/>
-      <c r="F954" s="8"/>
     </row>
     <row r="955">
+      <c r="D955" s="8"/>
       <c r="E955" s="8"/>
-      <c r="F955" s="8"/>
     </row>
     <row r="956">
+      <c r="D956" s="8"/>
       <c r="E956" s="8"/>
-      <c r="F956" s="8"/>
     </row>
     <row r="957">
+      <c r="D957" s="8"/>
       <c r="E957" s="8"/>
-      <c r="F957" s="8"/>
     </row>
     <row r="958">
+      <c r="D958" s="8"/>
       <c r="E958" s="8"/>
-      <c r="F958" s="8"/>
     </row>
     <row r="959">
+      <c r="D959" s="8"/>
       <c r="E959" s="8"/>
-      <c r="F959" s="8"/>
     </row>
     <row r="960">
+      <c r="D960" s="8"/>
       <c r="E960" s="8"/>
-      <c r="F960" s="8"/>
     </row>
     <row r="961">
+      <c r="D961" s="8"/>
       <c r="E961" s="8"/>
-      <c r="F961" s="8"/>
     </row>
     <row r="962">
+      <c r="D962" s="8"/>
       <c r="E962" s="8"/>
-      <c r="F962" s="8"/>
     </row>
     <row r="963">
+      <c r="D963" s="8"/>
       <c r="E963" s="8"/>
-      <c r="F963" s="8"/>
     </row>
     <row r="964">
+      <c r="D964" s="8"/>
       <c r="E964" s="8"/>
-      <c r="F964" s="8"/>
     </row>
     <row r="965">
+      <c r="D965" s="8"/>
       <c r="E965" s="8"/>
-      <c r="F965" s="8"/>
     </row>
     <row r="966">
+      <c r="D966" s="8"/>
       <c r="E966" s="8"/>
-      <c r="F966" s="8"/>
     </row>
     <row r="967">
+      <c r="D967" s="8"/>
       <c r="E967" s="8"/>
-      <c r="F967" s="8"/>
     </row>
     <row r="968">
+      <c r="D968" s="8"/>
       <c r="E968" s="8"/>
-      <c r="F968" s="8"/>
     </row>
     <row r="969">
+      <c r="D969" s="8"/>
       <c r="E969" s="8"/>
-      <c r="F969" s="8"/>
     </row>
     <row r="970">
+      <c r="D970" s="8"/>
       <c r="E970" s="8"/>
-      <c r="F970" s="8"/>
     </row>
     <row r="971">
+      <c r="D971" s="8"/>
       <c r="E971" s="8"/>
-      <c r="F971" s="8"/>
     </row>
     <row r="972">
+      <c r="D972" s="8"/>
       <c r="E972" s="8"/>
-      <c r="F972" s="8"/>
     </row>
     <row r="973">
+      <c r="D973" s="8"/>
       <c r="E973" s="8"/>
-      <c r="F973" s="8"/>
     </row>
     <row r="974">
+      <c r="D974" s="8"/>
       <c r="E974" s="8"/>
-      <c r="F974" s="8"/>
     </row>
     <row r="975">
+      <c r="D975" s="8"/>
       <c r="E975" s="8"/>
-      <c r="F975" s="8"/>
     </row>
     <row r="976">
+      <c r="D976" s="8"/>
       <c r="E976" s="8"/>
-      <c r="F976" s="8"/>
     </row>
     <row r="977">
+      <c r="D977" s="8"/>
       <c r="E977" s="8"/>
-      <c r="F977" s="8"/>
     </row>
     <row r="978">
+      <c r="D978" s="8"/>
       <c r="E978" s="8"/>
-      <c r="F978" s="8"/>
     </row>
     <row r="979">
+      <c r="D979" s="8"/>
       <c r="E979" s="8"/>
-      <c r="F979" s="8"/>
     </row>
     <row r="980">
+      <c r="D980" s="8"/>
       <c r="E980" s="8"/>
-      <c r="F980" s="8"/>
     </row>
     <row r="981">
+      <c r="D981" s="8"/>
       <c r="E981" s="8"/>
-      <c r="F981" s="8"/>
     </row>
     <row r="982">
+      <c r="D982" s="8"/>
       <c r="E982" s="8"/>
-      <c r="F982" s="8"/>
     </row>
     <row r="983">
+      <c r="D983" s="8"/>
       <c r="E983" s="8"/>
-      <c r="F983" s="8"/>
     </row>
     <row r="984">
+      <c r="D984" s="8"/>
       <c r="E984" s="8"/>
-      <c r="F984" s="8"/>
     </row>
     <row r="985">
+      <c r="D985" s="8"/>
       <c r="E985" s="8"/>
-      <c r="F985" s="8"/>
     </row>
     <row r="986">
+      <c r="D986" s="8"/>
       <c r="E986" s="8"/>
-      <c r="F986" s="8"/>
     </row>
     <row r="987">
+      <c r="D987" s="8"/>
       <c r="E987" s="8"/>
-      <c r="F987" s="8"/>
     </row>
     <row r="988">
+      <c r="D988" s="8"/>
       <c r="E988" s="8"/>
-      <c r="F988" s="8"/>
     </row>
     <row r="989">
+      <c r="D989" s="8"/>
       <c r="E989" s="8"/>
-      <c r="F989" s="8"/>
     </row>
     <row r="990">
+      <c r="D990" s="8"/>
       <c r="E990" s="8"/>
-      <c r="F990" s="8"/>
     </row>
     <row r="991">
+      <c r="D991" s="8"/>
       <c r="E991" s="8"/>
-      <c r="F991" s="8"/>
     </row>
     <row r="992">
+      <c r="D992" s="8"/>
       <c r="E992" s="8"/>
-      <c r="F992" s="8"/>
     </row>
     <row r="993">
+      <c r="D993" s="8"/>
       <c r="E993" s="8"/>
-      <c r="F993" s="8"/>
     </row>
     <row r="994">
+      <c r="D994" s="8"/>
       <c r="E994" s="8"/>
-      <c r="F994" s="8"/>
     </row>
     <row r="995">
+      <c r="D995" s="8"/>
       <c r="E995" s="8"/>
-      <c r="F995" s="8"/>
     </row>
     <row r="996">
+      <c r="D996" s="8"/>
       <c r="E996" s="8"/>
-      <c r="F996" s="8"/>
     </row>
     <row r="997">
+      <c r="D997" s="8"/>
       <c r="E997" s="8"/>
-      <c r="F997" s="8"/>
     </row>
     <row r="998">
+      <c r="D998" s="8"/>
       <c r="E998" s="8"/>
-      <c r="F998" s="8"/>
     </row>
     <row r="999">
+      <c r="D999" s="8"/>
       <c r="E999" s="8"/>
-      <c r="F999" s="8"/>
     </row>
     <row r="1000">
+      <c r="D1000" s="8"/>
       <c r="E1000" s="8"/>
-      <c r="F1000" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
